--- a/HealthImpactOutput_AustinEmily.xlsx
+++ b/HealthImpactOutput_AustinEmily.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\FHP\Quant Survey Analysis\GitHubFHP_Repository\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0626D755-269C-420D-AED2-C09FFE6697E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007C4F59-FA04-48E5-9B9B-2A5CAD551C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="157">
   <si>
     <t>SORT CASES  BY Youth.</t>
   </si>
@@ -784,7 +784,25 @@
     <t>In what ways has the program impacted how you manage your health? - Selected Choice Did not answer</t>
   </si>
   <si>
-    <t>Before program health Impacts: 2 tables (Adult and Youth)</t>
+    <t>I "split" the file in half by the youth variable, all tables will either be for participants in the youth program OR participants in the adult program</t>
+  </si>
+  <si>
+    <t>Before program health Impacts: 2 tables (Adult and Youth). Each table include all the questions (rows) and responses as columns. Valid percents.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Filtered for only people who said they had a physical health issue before the program </t>
+  </si>
+  <si>
+    <t>Same as above</t>
+  </si>
+  <si>
+    <t>One table responses as columns, need Frequeny and Valid Percent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">already exists </t>
+  </si>
+  <si>
+    <t>needs to be created, can use "HealthBehavioralChange_Adult" as template</t>
   </si>
 </sst>
 </file>
@@ -796,7 +814,7 @@
     <numFmt numFmtId="165" formatCode="###0.0%"/>
     <numFmt numFmtId="166" formatCode="###0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,6 +892,20 @@
     <font>
       <sz val="24"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF7030A0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1621,7 +1653,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1805,6 +1837,33 @@
     <xf numFmtId="166" fontId="5" fillId="4" borderId="31" xfId="94" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="6" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1814,87 +1873,63 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="7" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="6" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="7" xfId="9" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="14" xfId="18" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="15" xfId="19" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="20" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="17" xfId="21" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="22" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="19" xfId="23" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="26" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="25" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="28" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="39" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="32" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="34" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="44" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="45" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="46" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="36" xfId="47" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="37" xfId="48" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="32" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="39" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="12" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="47" xfId="61" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="48" xfId="62" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -1907,8 +1942,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="8" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="12" xfId="14" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="28" xfId="34" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="95">
@@ -2344,69 +2396,70 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K566"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20:K20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H553" sqref="G553:H553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="31" customWidth="1"/>
     <col min="3" max="3" width="30.7109375" customWidth="1"/>
-    <col min="4" max="10" width="18.5703125" customWidth="1"/>
+    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="5" max="10" width="18.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+    <row r="9" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="66" t="s">
+      <c r="B9" s="73"/>
+      <c r="C9" s="74"/>
+    </row>
+    <row r="10" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B10" s="67"/>
+      <c r="B10" s="92"/>
       <c r="C10" s="7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="68" t="s">
+    <row r="11" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="69"/>
+      <c r="B11" s="93"/>
       <c r="C11" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="68" t="s">
+    <row r="12" spans="1:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -2416,8 +2469,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="68"/>
+    <row r="13" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
       <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
@@ -2425,8 +2478,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="68"/>
+    <row r="14" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="64"/>
       <c r="B14" s="5" t="s">
         <v>15</v>
       </c>
@@ -2434,8 +2487,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="68"/>
+    <row r="15" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="64"/>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
@@ -2443,26 +2496,30 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="68"/>
-      <c r="B16" s="5" t="s">
+    <row r="16" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="64"/>
+      <c r="B16" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="100" t="s">
         <v>19</v>
       </c>
+      <c r="D16" s="98" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:11" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="68"/>
+      <c r="A17" s="64"/>
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C17" s="9">
         <v>143</v>
       </c>
+      <c r="D17" s="98"/>
     </row>
     <row r="18" spans="1:11" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="68" t="s">
+      <c r="A18" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -2471,9 +2528,10 @@
       <c r="C18" s="8" t="s">
         <v>23</v>
       </c>
+      <c r="D18" s="98"/>
     </row>
     <row r="19" spans="1:11" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="68"/>
+      <c r="A19" s="64"/>
       <c r="B19" s="5" t="s">
         <v>24</v>
       </c>
@@ -2482,21 +2540,21 @@
       </c>
     </row>
     <row r="20" spans="1:11" ht="165.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="68" t="s">
+      <c r="A20" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="69"/>
+      <c r="B20" s="93"/>
       <c r="C20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="96"/>
-      <c r="H20" s="96"/>
-      <c r="I20" s="96"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="96"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="97"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="97"/>
     </row>
     <row r="21" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="68" t="s">
+      <c r="A21" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -2507,7 +2565,7 @@
       </c>
     </row>
     <row r="22" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="70"/>
+      <c r="A22" s="65"/>
       <c r="B22" s="6" t="s">
         <v>31</v>
       </c>
@@ -2521,46 +2579,46 @@
       </c>
     </row>
     <row r="27" spans="1:11" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="63" t="s">
+      <c r="A27" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B27" s="64"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="64"/>
-      <c r="E27" s="64"/>
-      <c r="F27" s="64"/>
-      <c r="G27" s="65"/>
+      <c r="B27" s="73"/>
+      <c r="C27" s="73"/>
+      <c r="D27" s="73"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="73"/>
+      <c r="G27" s="74"/>
     </row>
     <row r="28" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="71" t="s">
+      <c r="A28" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="75"/>
-      <c r="E28" s="75"/>
-      <c r="F28" s="75"/>
-      <c r="G28" s="76"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="81"/>
     </row>
     <row r="29" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
-      <c r="B29" s="77" t="s">
+      <c r="A29" s="84"/>
+      <c r="B29" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78" t="s">
+      <c r="C29" s="89"/>
+      <c r="D29" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="78"/>
-      <c r="F29" s="78" t="s">
+      <c r="E29" s="89"/>
+      <c r="F29" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G29" s="79"/>
+      <c r="G29" s="90"/>
     </row>
     <row r="30" spans="1:11" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
+      <c r="A30" s="85"/>
       <c r="B30" s="12" t="s">
         <v>39</v>
       </c>
@@ -2584,7 +2642,7 @@
       <c r="A31" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B31" s="17">
+      <c r="B31" s="101">
         <v>73</v>
       </c>
       <c r="C31" s="18">
@@ -2604,62 +2662,62 @@
       </c>
     </row>
     <row r="32" spans="1:11" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="80" t="s">
+      <c r="A32" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B32" s="80"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="80"/>
-      <c r="G32" s="81"/>
+      <c r="B32" s="67"/>
+      <c r="C32" s="67"/>
+      <c r="D32" s="67"/>
+      <c r="E32" s="67"/>
+      <c r="F32" s="67"/>
+      <c r="G32" s="68"/>
     </row>
     <row r="33" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="80" t="s">
+      <c r="A33" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="82"/>
-      <c r="C33" s="82"/>
-      <c r="D33" s="82"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
+      <c r="B33" s="69"/>
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="69"/>
+      <c r="F33" s="69"/>
+      <c r="G33" s="70"/>
     </row>
     <row r="35" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="63" t="s">
+      <c r="A35" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B35" s="64"/>
-      <c r="C35" s="64"/>
-      <c r="D35" s="64"/>
-      <c r="E35" s="65"/>
+      <c r="B35" s="73"/>
+      <c r="C35" s="73"/>
+      <c r="D35" s="73"/>
+      <c r="E35" s="74"/>
     </row>
     <row r="36" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B36" s="85"/>
-      <c r="C36" s="88" t="s">
+      <c r="B36" s="76"/>
+      <c r="C36" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="75"/>
-      <c r="E36" s="76" t="s">
+      <c r="D36" s="80"/>
+      <c r="E36" s="81" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="87"/>
+      <c r="A37" s="77"/>
+      <c r="B37" s="78"/>
       <c r="C37" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D37" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E37" s="89"/>
+      <c r="E37" s="82"/>
     </row>
     <row r="38" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="90" t="s">
+      <c r="A38" s="63" t="s">
         <v>47</v>
       </c>
       <c r="B38" s="22" t="s">
@@ -2676,7 +2734,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="68"/>
+      <c r="A39" s="64"/>
       <c r="B39" s="5" t="s">
         <v>49</v>
       </c>
@@ -2691,7 +2749,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="68"/>
+      <c r="A40" s="64"/>
       <c r="B40" s="5" t="s">
         <v>50</v>
       </c>
@@ -2706,7 +2764,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="68"/>
+      <c r="A41" s="64"/>
       <c r="B41" s="5" t="s">
         <v>51</v>
       </c>
@@ -2721,10 +2779,10 @@
       </c>
     </row>
     <row r="42" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="70" t="s">
+      <c r="A42" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B42" s="91"/>
+      <c r="B42" s="66"/>
       <c r="C42" s="29">
         <v>129</v>
       </c>
@@ -2736,22 +2794,22 @@
       </c>
     </row>
     <row r="43" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="80" t="s">
+      <c r="A43" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B43" s="80"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
-      <c r="E43" s="81"/>
+      <c r="B43" s="67"/>
+      <c r="C43" s="67"/>
+      <c r="D43" s="67"/>
+      <c r="E43" s="68"/>
     </row>
     <row r="44" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="80" t="s">
+      <c r="A44" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B44" s="82"/>
-      <c r="C44" s="82"/>
-      <c r="D44" s="82"/>
-      <c r="E44" s="83"/>
+      <c r="B44" s="69"/>
+      <c r="C44" s="69"/>
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
     </row>
     <row r="47" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
@@ -2759,46 +2817,46 @@
       </c>
     </row>
     <row r="49" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="63" t="s">
+      <c r="A49" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="65"/>
+      <c r="B49" s="73"/>
+      <c r="C49" s="73"/>
+      <c r="D49" s="73"/>
+      <c r="E49" s="73"/>
+      <c r="F49" s="73"/>
+      <c r="G49" s="74"/>
     </row>
     <row r="50" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="71" t="s">
+      <c r="A50" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B50" s="74" t="s">
+      <c r="B50" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C50" s="92"/>
-      <c r="D50" s="75"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="75"/>
-      <c r="G50" s="76"/>
+      <c r="C50" s="87"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="87"/>
+      <c r="F50" s="80"/>
+      <c r="G50" s="81"/>
     </row>
     <row r="51" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="77" t="s">
+      <c r="A51" s="84"/>
+      <c r="B51" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78" t="s">
+      <c r="C51" s="89"/>
+      <c r="D51" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="E51" s="78"/>
-      <c r="F51" s="78" t="s">
+      <c r="E51" s="89"/>
+      <c r="F51" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G51" s="79"/>
+      <c r="G51" s="90"/>
     </row>
     <row r="52" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="73"/>
+      <c r="A52" s="85"/>
       <c r="B52" s="12" t="s">
         <v>39</v>
       </c>
@@ -2842,62 +2900,62 @@
       </c>
     </row>
     <row r="54" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="80" t="s">
+      <c r="A54" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
-      <c r="G54" s="81"/>
+      <c r="B54" s="67"/>
+      <c r="C54" s="67"/>
+      <c r="D54" s="67"/>
+      <c r="E54" s="67"/>
+      <c r="F54" s="67"/>
+      <c r="G54" s="68"/>
     </row>
     <row r="55" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="80" t="s">
+      <c r="A55" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B55" s="82"/>
-      <c r="C55" s="82"/>
-      <c r="D55" s="82"/>
-      <c r="E55" s="82"/>
-      <c r="F55" s="82"/>
-      <c r="G55" s="83"/>
+      <c r="B55" s="69"/>
+      <c r="C55" s="69"/>
+      <c r="D55" s="69"/>
+      <c r="E55" s="69"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="70"/>
     </row>
     <row r="57" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="63" t="s">
+      <c r="A57" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B57" s="64"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="64"/>
-      <c r="E57" s="65"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="74"/>
     </row>
     <row r="58" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="84" t="s">
+      <c r="A58" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="85"/>
-      <c r="C58" s="88" t="s">
+      <c r="B58" s="76"/>
+      <c r="C58" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D58" s="75"/>
-      <c r="E58" s="76" t="s">
+      <c r="D58" s="80"/>
+      <c r="E58" s="81" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="86"/>
-      <c r="B59" s="87"/>
+      <c r="A59" s="77"/>
+      <c r="B59" s="78"/>
       <c r="C59" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D59" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E59" s="89"/>
+      <c r="E59" s="82"/>
     </row>
     <row r="60" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="90" t="s">
+      <c r="A60" s="63" t="s">
         <v>47</v>
       </c>
       <c r="B60" s="22" t="s">
@@ -2914,7 +2972,7 @@
       </c>
     </row>
     <row r="61" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="68"/>
+      <c r="A61" s="64"/>
       <c r="B61" s="5" t="s">
         <v>55</v>
       </c>
@@ -2929,7 +2987,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="68"/>
+      <c r="A62" s="64"/>
       <c r="B62" s="5" t="s">
         <v>48</v>
       </c>
@@ -2944,7 +3002,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A63" s="68"/>
+      <c r="A63" s="64"/>
       <c r="B63" s="5" t="s">
         <v>49</v>
       </c>
@@ -2959,7 +3017,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="68"/>
+      <c r="A64" s="64"/>
       <c r="B64" s="5" t="s">
         <v>50</v>
       </c>
@@ -2974,7 +3032,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="68"/>
+      <c r="A65" s="64"/>
       <c r="B65" s="5" t="s">
         <v>51</v>
       </c>
@@ -2989,10 +3047,10 @@
       </c>
     </row>
     <row r="66" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="70" t="s">
+      <c r="A66" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B66" s="91"/>
+      <c r="B66" s="66"/>
       <c r="C66" s="29">
         <v>96</v>
       </c>
@@ -3004,54 +3062,54 @@
       </c>
     </row>
     <row r="67" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="80" t="s">
+      <c r="A67" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B67" s="80"/>
-      <c r="C67" s="80"/>
-      <c r="D67" s="80"/>
-      <c r="E67" s="81"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="68"/>
     </row>
     <row r="68" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="80" t="s">
+      <c r="A68" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B68" s="82"/>
-      <c r="C68" s="82"/>
-      <c r="D68" s="82"/>
-      <c r="E68" s="83"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
+      <c r="E68" s="70"/>
     </row>
     <row r="70" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E70" s="97" t="s">
-        <v>150</v>
-      </c>
-      <c r="F70" s="97"/>
-      <c r="G70" s="97"/>
-      <c r="H70" s="97"/>
-      <c r="I70" s="97"/>
-      <c r="J70" s="97"/>
+      <c r="E70" s="71" t="s">
+        <v>151</v>
+      </c>
+      <c r="F70" s="71"/>
+      <c r="G70" s="71"/>
+      <c r="H70" s="71"/>
+      <c r="I70" s="71"/>
+      <c r="J70" s="71"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="E71" s="97"/>
-      <c r="F71" s="97"/>
-      <c r="G71" s="97"/>
-      <c r="H71" s="97"/>
-      <c r="I71" s="97"/>
-      <c r="J71" s="97"/>
+      <c r="E71" s="71"/>
+      <c r="F71" s="71"/>
+      <c r="G71" s="71"/>
+      <c r="H71" s="71"/>
+      <c r="I71" s="71"/>
+      <c r="J71" s="71"/>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E72" s="97"/>
-      <c r="F72" s="97"/>
-      <c r="G72" s="97"/>
-      <c r="H72" s="97"/>
-      <c r="I72" s="97"/>
-      <c r="J72" s="97"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="71"/>
+      <c r="H72" s="71"/>
+      <c r="I72" s="71"/>
+      <c r="J72" s="71"/>
     </row>
     <row r="74" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
@@ -3059,32 +3117,32 @@
       </c>
     </row>
     <row r="76" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="63" t="s">
+      <c r="A76" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B76" s="64"/>
-      <c r="C76" s="65"/>
+      <c r="B76" s="73"/>
+      <c r="C76" s="74"/>
     </row>
     <row r="77" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="66" t="s">
+      <c r="A77" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B77" s="67"/>
+      <c r="B77" s="92"/>
       <c r="C77" s="7" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="68" t="s">
+      <c r="A78" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B78" s="69"/>
+      <c r="B78" s="93"/>
       <c r="C78" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="68" t="s">
+      <c r="A79" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3095,7 +3153,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="68"/>
+      <c r="A80" s="64"/>
       <c r="B80" s="5" t="s">
         <v>13</v>
       </c>
@@ -3104,7 +3162,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="68"/>
+      <c r="A81" s="64"/>
       <c r="B81" s="5" t="s">
         <v>15</v>
       </c>
@@ -3113,7 +3171,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="68"/>
+      <c r="A82" s="64"/>
       <c r="B82" s="5" t="s">
         <v>17</v>
       </c>
@@ -3122,7 +3180,7 @@
       </c>
     </row>
     <row r="83" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="68"/>
+      <c r="A83" s="64"/>
       <c r="B83" s="5" t="s">
         <v>18</v>
       </c>
@@ -3131,7 +3189,7 @@
       </c>
     </row>
     <row r="84" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="68"/>
+      <c r="A84" s="64"/>
       <c r="B84" s="5" t="s">
         <v>20</v>
       </c>
@@ -3140,7 +3198,7 @@
       </c>
     </row>
     <row r="85" spans="1:10" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="68" t="s">
+      <c r="A85" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -3151,7 +3209,7 @@
       </c>
     </row>
     <row r="86" spans="1:10" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="68"/>
+      <c r="A86" s="64"/>
       <c r="B86" s="5" t="s">
         <v>24</v>
       </c>
@@ -3160,16 +3218,16 @@
       </c>
     </row>
     <row r="87" spans="1:10" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="68" t="s">
+      <c r="A87" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B87" s="69"/>
+      <c r="B87" s="93"/>
       <c r="C87" s="8" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="68" t="s">
+      <c r="A88" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -3180,7 +3238,7 @@
       </c>
     </row>
     <row r="89" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="70"/>
+      <c r="A89" s="65"/>
       <c r="B89" s="6" t="s">
         <v>31</v>
       </c>
@@ -3194,24 +3252,24 @@
       </c>
     </row>
     <row r="94" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="63" t="s">
+      <c r="A94" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B94" s="64"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="64"/>
-      <c r="F94" s="64"/>
-      <c r="G94" s="64"/>
-      <c r="H94" s="64"/>
-      <c r="I94" s="64"/>
-      <c r="J94" s="65"/>
+      <c r="B94" s="73"/>
+      <c r="C94" s="73"/>
+      <c r="D94" s="73"/>
+      <c r="E94" s="73"/>
+      <c r="F94" s="73"/>
+      <c r="G94" s="73"/>
+      <c r="H94" s="73"/>
+      <c r="I94" s="73"/>
+      <c r="J94" s="74"/>
     </row>
     <row r="95" spans="1:10" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="93" t="s">
+      <c r="A95" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B95" s="94"/>
+      <c r="B95" s="95"/>
       <c r="C95" s="32" t="s">
         <v>63</v>
       </c>
@@ -3238,7 +3296,7 @@
       </c>
     </row>
     <row r="96" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="90" t="s">
+      <c r="A96" s="63" t="s">
         <v>39</v>
       </c>
       <c r="B96" s="22" t="s">
@@ -3270,7 +3328,7 @@
       </c>
     </row>
     <row r="97" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="70"/>
+      <c r="A97" s="65"/>
       <c r="B97" s="6" t="s">
         <v>37</v>
       </c>
@@ -3300,18 +3358,18 @@
       </c>
     </row>
     <row r="98" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="80" t="s">
+      <c r="A98" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B98" s="82"/>
-      <c r="C98" s="82"/>
-      <c r="D98" s="82"/>
-      <c r="E98" s="82"/>
-      <c r="F98" s="82"/>
-      <c r="G98" s="82"/>
-      <c r="H98" s="82"/>
-      <c r="I98" s="82"/>
-      <c r="J98" s="83"/>
+      <c r="B98" s="69"/>
+      <c r="C98" s="69"/>
+      <c r="D98" s="69"/>
+      <c r="E98" s="69"/>
+      <c r="F98" s="69"/>
+      <c r="G98" s="69"/>
+      <c r="H98" s="69"/>
+      <c r="I98" s="69"/>
+      <c r="J98" s="70"/>
     </row>
     <row r="101" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
@@ -3319,20 +3377,20 @@
       </c>
     </row>
     <row r="103" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="63" t="s">
+      <c r="A103" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B103" s="64"/>
-      <c r="C103" s="64"/>
-      <c r="D103" s="64"/>
-      <c r="E103" s="64"/>
-      <c r="F103" s="65"/>
+      <c r="B103" s="73"/>
+      <c r="C103" s="73"/>
+      <c r="D103" s="73"/>
+      <c r="E103" s="73"/>
+      <c r="F103" s="74"/>
     </row>
     <row r="104" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="93" t="s">
+      <c r="A104" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B104" s="94"/>
+      <c r="B104" s="95"/>
       <c r="C104" s="32" t="s">
         <v>73</v>
       </c>
@@ -3347,7 +3405,7 @@
       </c>
     </row>
     <row r="105" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="90" t="s">
+      <c r="A105" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B105" s="22" t="s">
@@ -3367,7 +3425,7 @@
       </c>
     </row>
     <row r="106" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="68"/>
+      <c r="A106" s="64"/>
       <c r="B106" s="5" t="s">
         <v>77</v>
       </c>
@@ -3385,7 +3443,7 @@
       </c>
     </row>
     <row r="107" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A107" s="68"/>
+      <c r="A107" s="64"/>
       <c r="B107" s="5" t="s">
         <v>78</v>
       </c>
@@ -3403,7 +3461,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A108" s="70"/>
+      <c r="A108" s="65"/>
       <c r="B108" s="6" t="s">
         <v>38</v>
       </c>
@@ -3419,30 +3477,30 @@
       <c r="F108" s="50"/>
     </row>
     <row r="109" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="80" t="s">
+      <c r="A109" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B109" s="82"/>
-      <c r="C109" s="82"/>
-      <c r="D109" s="82"/>
-      <c r="E109" s="82"/>
-      <c r="F109" s="83"/>
+      <c r="B109" s="69"/>
+      <c r="C109" s="69"/>
+      <c r="D109" s="69"/>
+      <c r="E109" s="69"/>
+      <c r="F109" s="70"/>
     </row>
     <row r="111" spans="1:10" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A111" s="63" t="s">
+      <c r="A111" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B111" s="64"/>
-      <c r="C111" s="64"/>
-      <c r="D111" s="64"/>
-      <c r="E111" s="64"/>
-      <c r="F111" s="65"/>
+      <c r="B111" s="73"/>
+      <c r="C111" s="73"/>
+      <c r="D111" s="73"/>
+      <c r="E111" s="73"/>
+      <c r="F111" s="74"/>
     </row>
     <row r="112" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="93" t="s">
+      <c r="A112" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B112" s="94"/>
+      <c r="B112" s="95"/>
       <c r="C112" s="32" t="s">
         <v>73</v>
       </c>
@@ -3457,7 +3515,7 @@
       </c>
     </row>
     <row r="113" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="90" t="s">
+      <c r="A113" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B113" s="22" t="s">
@@ -3477,7 +3535,7 @@
       </c>
     </row>
     <row r="114" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="68"/>
+      <c r="A114" s="64"/>
       <c r="B114" s="5" t="s">
         <v>77</v>
       </c>
@@ -3495,7 +3553,7 @@
       </c>
     </row>
     <row r="115" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="70"/>
+      <c r="A115" s="65"/>
       <c r="B115" s="6" t="s">
         <v>38</v>
       </c>
@@ -3511,30 +3569,30 @@
       <c r="F115" s="50"/>
     </row>
     <row r="116" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="80" t="s">
+      <c r="A116" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B116" s="82"/>
-      <c r="C116" s="82"/>
-      <c r="D116" s="82"/>
-      <c r="E116" s="82"/>
-      <c r="F116" s="83"/>
+      <c r="B116" s="69"/>
+      <c r="C116" s="69"/>
+      <c r="D116" s="69"/>
+      <c r="E116" s="69"/>
+      <c r="F116" s="70"/>
     </row>
     <row r="118" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="63" t="s">
+      <c r="A118" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B118" s="64"/>
-      <c r="C118" s="64"/>
-      <c r="D118" s="64"/>
-      <c r="E118" s="64"/>
-      <c r="F118" s="65"/>
+      <c r="B118" s="73"/>
+      <c r="C118" s="73"/>
+      <c r="D118" s="73"/>
+      <c r="E118" s="73"/>
+      <c r="F118" s="74"/>
     </row>
     <row r="119" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A119" s="93" t="s">
+      <c r="A119" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B119" s="94"/>
+      <c r="B119" s="95"/>
       <c r="C119" s="32" t="s">
         <v>73</v>
       </c>
@@ -3549,7 +3607,7 @@
       </c>
     </row>
     <row r="120" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="90" t="s">
+      <c r="A120" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B120" s="22" t="s">
@@ -3569,7 +3627,7 @@
       </c>
     </row>
     <row r="121" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A121" s="68"/>
+      <c r="A121" s="64"/>
       <c r="B121" s="5" t="s">
         <v>77</v>
       </c>
@@ -3587,7 +3645,7 @@
       </c>
     </row>
     <row r="122" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="68"/>
+      <c r="A122" s="64"/>
       <c r="B122" s="5" t="s">
         <v>78</v>
       </c>
@@ -3605,7 +3663,7 @@
       </c>
     </row>
     <row r="123" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="70"/>
+      <c r="A123" s="65"/>
       <c r="B123" s="6" t="s">
         <v>38</v>
       </c>
@@ -3621,30 +3679,30 @@
       <c r="F123" s="50"/>
     </row>
     <row r="124" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="80" t="s">
+      <c r="A124" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B124" s="82"/>
-      <c r="C124" s="82"/>
-      <c r="D124" s="82"/>
-      <c r="E124" s="82"/>
-      <c r="F124" s="83"/>
+      <c r="B124" s="69"/>
+      <c r="C124" s="69"/>
+      <c r="D124" s="69"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="70"/>
     </row>
     <row r="126" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="63" t="s">
+      <c r="A126" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="B126" s="64"/>
-      <c r="C126" s="64"/>
-      <c r="D126" s="64"/>
-      <c r="E126" s="64"/>
-      <c r="F126" s="65"/>
+      <c r="B126" s="73"/>
+      <c r="C126" s="73"/>
+      <c r="D126" s="73"/>
+      <c r="E126" s="73"/>
+      <c r="F126" s="74"/>
     </row>
     <row r="127" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="93" t="s">
+      <c r="A127" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B127" s="94"/>
+      <c r="B127" s="95"/>
       <c r="C127" s="32" t="s">
         <v>73</v>
       </c>
@@ -3659,7 +3717,7 @@
       </c>
     </row>
     <row r="128" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="90" t="s">
+      <c r="A128" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B128" s="22" t="s">
@@ -3679,7 +3737,7 @@
       </c>
     </row>
     <row r="129" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A129" s="68"/>
+      <c r="A129" s="64"/>
       <c r="B129" s="5" t="s">
         <v>77</v>
       </c>
@@ -3697,7 +3755,7 @@
       </c>
     </row>
     <row r="130" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="70"/>
+      <c r="A130" s="65"/>
       <c r="B130" s="6" t="s">
         <v>38</v>
       </c>
@@ -3713,30 +3771,30 @@
       <c r="F130" s="50"/>
     </row>
     <row r="131" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="80" t="s">
+      <c r="A131" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B131" s="82"/>
-      <c r="C131" s="82"/>
-      <c r="D131" s="82"/>
-      <c r="E131" s="82"/>
-      <c r="F131" s="83"/>
+      <c r="B131" s="69"/>
+      <c r="C131" s="69"/>
+      <c r="D131" s="69"/>
+      <c r="E131" s="69"/>
+      <c r="F131" s="70"/>
     </row>
     <row r="133" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A133" s="63" t="s">
+      <c r="A133" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B133" s="64"/>
-      <c r="C133" s="64"/>
-      <c r="D133" s="64"/>
-      <c r="E133" s="64"/>
-      <c r="F133" s="65"/>
+      <c r="B133" s="73"/>
+      <c r="C133" s="73"/>
+      <c r="D133" s="73"/>
+      <c r="E133" s="73"/>
+      <c r="F133" s="74"/>
     </row>
     <row r="134" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="93" t="s">
+      <c r="A134" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B134" s="94"/>
+      <c r="B134" s="95"/>
       <c r="C134" s="32" t="s">
         <v>73</v>
       </c>
@@ -3751,7 +3809,7 @@
       </c>
     </row>
     <row r="135" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A135" s="90" t="s">
+      <c r="A135" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B135" s="22" t="s">
@@ -3771,7 +3829,7 @@
       </c>
     </row>
     <row r="136" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A136" s="68"/>
+      <c r="A136" s="64"/>
       <c r="B136" s="5" t="s">
         <v>77</v>
       </c>
@@ -3789,7 +3847,7 @@
       </c>
     </row>
     <row r="137" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A137" s="70"/>
+      <c r="A137" s="65"/>
       <c r="B137" s="6" t="s">
         <v>38</v>
       </c>
@@ -3805,30 +3863,30 @@
       <c r="F137" s="50"/>
     </row>
     <row r="138" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="80" t="s">
+      <c r="A138" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B138" s="82"/>
-      <c r="C138" s="82"/>
-      <c r="D138" s="82"/>
-      <c r="E138" s="82"/>
-      <c r="F138" s="83"/>
+      <c r="B138" s="69"/>
+      <c r="C138" s="69"/>
+      <c r="D138" s="69"/>
+      <c r="E138" s="69"/>
+      <c r="F138" s="70"/>
     </row>
     <row r="140" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="95" t="s">
+      <c r="A140" s="96" t="s">
         <v>83</v>
       </c>
-      <c r="B140" s="64"/>
-      <c r="C140" s="64"/>
-      <c r="D140" s="64"/>
-      <c r="E140" s="64"/>
-      <c r="F140" s="65"/>
+      <c r="B140" s="73"/>
+      <c r="C140" s="73"/>
+      <c r="D140" s="73"/>
+      <c r="E140" s="73"/>
+      <c r="F140" s="74"/>
     </row>
     <row r="141" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="93" t="s">
+      <c r="A141" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B141" s="94"/>
+      <c r="B141" s="95"/>
       <c r="C141" s="32" t="s">
         <v>73</v>
       </c>
@@ -3843,7 +3901,7 @@
       </c>
     </row>
     <row r="142" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="90" t="s">
+      <c r="A142" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B142" s="22" t="s">
@@ -3863,7 +3921,7 @@
       </c>
     </row>
     <row r="143" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A143" s="68"/>
+      <c r="A143" s="64"/>
       <c r="B143" s="5" t="s">
         <v>77</v>
       </c>
@@ -3881,7 +3939,7 @@
       </c>
     </row>
     <row r="144" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="70"/>
+      <c r="A144" s="65"/>
       <c r="B144" s="6" t="s">
         <v>38</v>
       </c>
@@ -3897,30 +3955,30 @@
       <c r="F144" s="50"/>
     </row>
     <row r="145" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="80" t="s">
+      <c r="A145" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B145" s="82"/>
-      <c r="C145" s="82"/>
-      <c r="D145" s="82"/>
-      <c r="E145" s="82"/>
-      <c r="F145" s="83"/>
+      <c r="B145" s="69"/>
+      <c r="C145" s="69"/>
+      <c r="D145" s="69"/>
+      <c r="E145" s="69"/>
+      <c r="F145" s="70"/>
     </row>
     <row r="147" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="63" t="s">
+      <c r="A147" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B147" s="64"/>
-      <c r="C147" s="64"/>
-      <c r="D147" s="64"/>
-      <c r="E147" s="64"/>
-      <c r="F147" s="65"/>
+      <c r="B147" s="73"/>
+      <c r="C147" s="73"/>
+      <c r="D147" s="73"/>
+      <c r="E147" s="73"/>
+      <c r="F147" s="74"/>
     </row>
     <row r="148" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="93" t="s">
+      <c r="A148" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B148" s="94"/>
+      <c r="B148" s="95"/>
       <c r="C148" s="32" t="s">
         <v>73</v>
       </c>
@@ -3935,7 +3993,7 @@
       </c>
     </row>
     <row r="149" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="90" t="s">
+      <c r="A149" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B149" s="22" t="s">
@@ -3955,7 +4013,7 @@
       </c>
     </row>
     <row r="150" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="68"/>
+      <c r="A150" s="64"/>
       <c r="B150" s="5" t="s">
         <v>77</v>
       </c>
@@ -3973,7 +4031,7 @@
       </c>
     </row>
     <row r="151" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="70"/>
+      <c r="A151" s="65"/>
       <c r="B151" s="6" t="s">
         <v>38</v>
       </c>
@@ -3989,30 +4047,30 @@
       <c r="F151" s="50"/>
     </row>
     <row r="152" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="80" t="s">
+      <c r="A152" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B152" s="82"/>
-      <c r="C152" s="82"/>
-      <c r="D152" s="82"/>
-      <c r="E152" s="82"/>
-      <c r="F152" s="83"/>
+      <c r="B152" s="69"/>
+      <c r="C152" s="69"/>
+      <c r="D152" s="69"/>
+      <c r="E152" s="69"/>
+      <c r="F152" s="70"/>
     </row>
     <row r="154" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="95" t="s">
+      <c r="A154" s="96" t="s">
         <v>85</v>
       </c>
-      <c r="B154" s="64"/>
-      <c r="C154" s="64"/>
-      <c r="D154" s="64"/>
-      <c r="E154" s="64"/>
-      <c r="F154" s="65"/>
+      <c r="B154" s="73"/>
+      <c r="C154" s="73"/>
+      <c r="D154" s="73"/>
+      <c r="E154" s="73"/>
+      <c r="F154" s="74"/>
     </row>
     <row r="155" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="93" t="s">
+      <c r="A155" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B155" s="94"/>
+      <c r="B155" s="95"/>
       <c r="C155" s="32" t="s">
         <v>73</v>
       </c>
@@ -4027,7 +4085,7 @@
       </c>
     </row>
     <row r="156" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="90" t="s">
+      <c r="A156" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B156" s="22" t="s">
@@ -4047,7 +4105,7 @@
       </c>
     </row>
     <row r="157" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="68"/>
+      <c r="A157" s="64"/>
       <c r="B157" s="5" t="s">
         <v>77</v>
       </c>
@@ -4065,7 +4123,7 @@
       </c>
     </row>
     <row r="158" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A158" s="68"/>
+      <c r="A158" s="64"/>
       <c r="B158" s="5" t="s">
         <v>38</v>
       </c>
@@ -4097,10 +4155,10 @@
       <c r="F159" s="51"/>
     </row>
     <row r="160" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A160" s="70" t="s">
+      <c r="A160" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B160" s="91"/>
+      <c r="B160" s="66"/>
       <c r="C160" s="29">
         <v>73</v>
       </c>
@@ -4111,14 +4169,14 @@
       <c r="F160" s="50"/>
     </row>
     <row r="161" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A161" s="80" t="s">
+      <c r="A161" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B161" s="82"/>
-      <c r="C161" s="82"/>
-      <c r="D161" s="82"/>
-      <c r="E161" s="82"/>
-      <c r="F161" s="83"/>
+      <c r="B161" s="69"/>
+      <c r="C161" s="69"/>
+      <c r="D161" s="69"/>
+      <c r="E161" s="69"/>
+      <c r="F161" s="70"/>
     </row>
     <row r="164" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
@@ -4126,24 +4184,24 @@
       </c>
     </row>
     <row r="166" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A166" s="63" t="s">
+      <c r="A166" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B166" s="64"/>
-      <c r="C166" s="64"/>
-      <c r="D166" s="64"/>
-      <c r="E166" s="64"/>
-      <c r="F166" s="64"/>
-      <c r="G166" s="64"/>
-      <c r="H166" s="64"/>
-      <c r="I166" s="64"/>
-      <c r="J166" s="65"/>
+      <c r="B166" s="73"/>
+      <c r="C166" s="73"/>
+      <c r="D166" s="73"/>
+      <c r="E166" s="73"/>
+      <c r="F166" s="73"/>
+      <c r="G166" s="73"/>
+      <c r="H166" s="73"/>
+      <c r="I166" s="73"/>
+      <c r="J166" s="74"/>
     </row>
     <row r="167" spans="1:10" ht="200.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A167" s="93" t="s">
+      <c r="A167" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B167" s="94"/>
+      <c r="B167" s="95"/>
       <c r="C167" s="32" t="s">
         <v>63</v>
       </c>
@@ -4170,7 +4228,7 @@
       </c>
     </row>
     <row r="168" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="90" t="s">
+      <c r="A168" s="63" t="s">
         <v>39</v>
       </c>
       <c r="B168" s="22" t="s">
@@ -4202,7 +4260,7 @@
       </c>
     </row>
     <row r="169" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A169" s="70"/>
+      <c r="A169" s="65"/>
       <c r="B169" s="6" t="s">
         <v>37</v>
       </c>
@@ -4232,18 +4290,18 @@
       </c>
     </row>
     <row r="170" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="80" t="s">
+      <c r="A170" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B170" s="82"/>
-      <c r="C170" s="82"/>
-      <c r="D170" s="82"/>
-      <c r="E170" s="82"/>
-      <c r="F170" s="82"/>
-      <c r="G170" s="82"/>
-      <c r="H170" s="82"/>
-      <c r="I170" s="82"/>
-      <c r="J170" s="83"/>
+      <c r="B170" s="69"/>
+      <c r="C170" s="69"/>
+      <c r="D170" s="69"/>
+      <c r="E170" s="69"/>
+      <c r="F170" s="69"/>
+      <c r="G170" s="69"/>
+      <c r="H170" s="69"/>
+      <c r="I170" s="69"/>
+      <c r="J170" s="70"/>
     </row>
     <row r="173" spans="1:10" ht="18" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
@@ -4251,20 +4309,20 @@
       </c>
     </row>
     <row r="175" spans="1:10" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="63" t="s">
+      <c r="A175" s="72" t="s">
         <v>72</v>
       </c>
-      <c r="B175" s="64"/>
-      <c r="C175" s="64"/>
-      <c r="D175" s="64"/>
-      <c r="E175" s="64"/>
-      <c r="F175" s="65"/>
+      <c r="B175" s="73"/>
+      <c r="C175" s="73"/>
+      <c r="D175" s="73"/>
+      <c r="E175" s="73"/>
+      <c r="F175" s="74"/>
     </row>
     <row r="176" spans="1:10" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A176" s="93" t="s">
+      <c r="A176" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B176" s="94"/>
+      <c r="B176" s="95"/>
       <c r="C176" s="32" t="s">
         <v>73</v>
       </c>
@@ -4279,7 +4337,7 @@
       </c>
     </row>
     <row r="177" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A177" s="90" t="s">
+      <c r="A177" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B177" s="22" t="s">
@@ -4299,7 +4357,7 @@
       </c>
     </row>
     <row r="178" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A178" s="68"/>
+      <c r="A178" s="64"/>
       <c r="B178" s="5" t="s">
         <v>77</v>
       </c>
@@ -4317,7 +4375,7 @@
       </c>
     </row>
     <row r="179" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A179" s="68"/>
+      <c r="A179" s="64"/>
       <c r="B179" s="5" t="s">
         <v>78</v>
       </c>
@@ -4335,7 +4393,7 @@
       </c>
     </row>
     <row r="180" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A180" s="70"/>
+      <c r="A180" s="65"/>
       <c r="B180" s="6" t="s">
         <v>38</v>
       </c>
@@ -4351,30 +4409,30 @@
       <c r="F180" s="50"/>
     </row>
     <row r="181" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A181" s="80" t="s">
+      <c r="A181" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B181" s="82"/>
-      <c r="C181" s="82"/>
-      <c r="D181" s="82"/>
-      <c r="E181" s="82"/>
-      <c r="F181" s="83"/>
+      <c r="B181" s="69"/>
+      <c r="C181" s="69"/>
+      <c r="D181" s="69"/>
+      <c r="E181" s="69"/>
+      <c r="F181" s="70"/>
     </row>
     <row r="183" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A183" s="63" t="s">
+      <c r="A183" s="72" t="s">
         <v>79</v>
       </c>
-      <c r="B183" s="64"/>
-      <c r="C183" s="64"/>
-      <c r="D183" s="64"/>
-      <c r="E183" s="64"/>
-      <c r="F183" s="65"/>
+      <c r="B183" s="73"/>
+      <c r="C183" s="73"/>
+      <c r="D183" s="73"/>
+      <c r="E183" s="73"/>
+      <c r="F183" s="74"/>
     </row>
     <row r="184" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="93" t="s">
+      <c r="A184" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B184" s="94"/>
+      <c r="B184" s="95"/>
       <c r="C184" s="32" t="s">
         <v>73</v>
       </c>
@@ -4389,7 +4447,7 @@
       </c>
     </row>
     <row r="185" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A185" s="90" t="s">
+      <c r="A185" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B185" s="22" t="s">
@@ -4409,7 +4467,7 @@
       </c>
     </row>
     <row r="186" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A186" s="68"/>
+      <c r="A186" s="64"/>
       <c r="B186" s="5" t="s">
         <v>77</v>
       </c>
@@ -4427,7 +4485,7 @@
       </c>
     </row>
     <row r="187" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A187" s="68"/>
+      <c r="A187" s="64"/>
       <c r="B187" s="5" t="s">
         <v>78</v>
       </c>
@@ -4445,7 +4503,7 @@
       </c>
     </row>
     <row r="188" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A188" s="70"/>
+      <c r="A188" s="65"/>
       <c r="B188" s="6" t="s">
         <v>38</v>
       </c>
@@ -4461,30 +4519,30 @@
       <c r="F188" s="50"/>
     </row>
     <row r="189" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A189" s="80" t="s">
+      <c r="A189" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B189" s="82"/>
-      <c r="C189" s="82"/>
-      <c r="D189" s="82"/>
-      <c r="E189" s="82"/>
-      <c r="F189" s="83"/>
+      <c r="B189" s="69"/>
+      <c r="C189" s="69"/>
+      <c r="D189" s="69"/>
+      <c r="E189" s="69"/>
+      <c r="F189" s="70"/>
     </row>
     <row r="191" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="63" t="s">
+      <c r="A191" s="72" t="s">
         <v>80</v>
       </c>
-      <c r="B191" s="64"/>
-      <c r="C191" s="64"/>
-      <c r="D191" s="64"/>
-      <c r="E191" s="64"/>
-      <c r="F191" s="65"/>
+      <c r="B191" s="73"/>
+      <c r="C191" s="73"/>
+      <c r="D191" s="73"/>
+      <c r="E191" s="73"/>
+      <c r="F191" s="74"/>
     </row>
     <row r="192" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A192" s="93" t="s">
+      <c r="A192" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B192" s="94"/>
+      <c r="B192" s="95"/>
       <c r="C192" s="32" t="s">
         <v>73</v>
       </c>
@@ -4499,7 +4557,7 @@
       </c>
     </row>
     <row r="193" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A193" s="90" t="s">
+      <c r="A193" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B193" s="22" t="s">
@@ -4519,7 +4577,7 @@
       </c>
     </row>
     <row r="194" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A194" s="68"/>
+      <c r="A194" s="64"/>
       <c r="B194" s="5" t="s">
         <v>77</v>
       </c>
@@ -4537,7 +4595,7 @@
       </c>
     </row>
     <row r="195" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A195" s="68"/>
+      <c r="A195" s="64"/>
       <c r="B195" s="5" t="s">
         <v>78</v>
       </c>
@@ -4555,7 +4613,7 @@
       </c>
     </row>
     <row r="196" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A196" s="70"/>
+      <c r="A196" s="65"/>
       <c r="B196" s="6" t="s">
         <v>38</v>
       </c>
@@ -4571,30 +4629,30 @@
       <c r="F196" s="50"/>
     </row>
     <row r="197" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A197" s="80" t="s">
+      <c r="A197" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B197" s="82"/>
-      <c r="C197" s="82"/>
-      <c r="D197" s="82"/>
-      <c r="E197" s="82"/>
-      <c r="F197" s="83"/>
+      <c r="B197" s="69"/>
+      <c r="C197" s="69"/>
+      <c r="D197" s="69"/>
+      <c r="E197" s="69"/>
+      <c r="F197" s="70"/>
     </row>
     <row r="199" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A199" s="63" t="s">
+      <c r="A199" s="72" t="s">
         <v>81</v>
       </c>
-      <c r="B199" s="64"/>
-      <c r="C199" s="64"/>
-      <c r="D199" s="64"/>
-      <c r="E199" s="64"/>
-      <c r="F199" s="65"/>
+      <c r="B199" s="73"/>
+      <c r="C199" s="73"/>
+      <c r="D199" s="73"/>
+      <c r="E199" s="73"/>
+      <c r="F199" s="74"/>
     </row>
     <row r="200" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A200" s="93" t="s">
+      <c r="A200" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B200" s="94"/>
+      <c r="B200" s="95"/>
       <c r="C200" s="32" t="s">
         <v>73</v>
       </c>
@@ -4609,7 +4667,7 @@
       </c>
     </row>
     <row r="201" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="90" t="s">
+      <c r="A201" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B201" s="22" t="s">
@@ -4629,7 +4687,7 @@
       </c>
     </row>
     <row r="202" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A202" s="68"/>
+      <c r="A202" s="64"/>
       <c r="B202" s="5" t="s">
         <v>77</v>
       </c>
@@ -4647,7 +4705,7 @@
       </c>
     </row>
     <row r="203" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A203" s="68"/>
+      <c r="A203" s="64"/>
       <c r="B203" s="5" t="s">
         <v>78</v>
       </c>
@@ -4665,7 +4723,7 @@
       </c>
     </row>
     <row r="204" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="70"/>
+      <c r="A204" s="65"/>
       <c r="B204" s="6" t="s">
         <v>38</v>
       </c>
@@ -4681,30 +4739,30 @@
       <c r="F204" s="50"/>
     </row>
     <row r="205" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A205" s="80" t="s">
+      <c r="A205" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B205" s="82"/>
-      <c r="C205" s="82"/>
-      <c r="D205" s="82"/>
-      <c r="E205" s="82"/>
-      <c r="F205" s="83"/>
+      <c r="B205" s="69"/>
+      <c r="C205" s="69"/>
+      <c r="D205" s="69"/>
+      <c r="E205" s="69"/>
+      <c r="F205" s="70"/>
     </row>
     <row r="207" spans="1:6" ht="69.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A207" s="63" t="s">
+      <c r="A207" s="72" t="s">
         <v>82</v>
       </c>
-      <c r="B207" s="64"/>
-      <c r="C207" s="64"/>
-      <c r="D207" s="64"/>
-      <c r="E207" s="64"/>
-      <c r="F207" s="65"/>
+      <c r="B207" s="73"/>
+      <c r="C207" s="73"/>
+      <c r="D207" s="73"/>
+      <c r="E207" s="73"/>
+      <c r="F207" s="74"/>
     </row>
     <row r="208" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A208" s="93" t="s">
+      <c r="A208" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B208" s="94"/>
+      <c r="B208" s="95"/>
       <c r="C208" s="32" t="s">
         <v>73</v>
       </c>
@@ -4719,7 +4777,7 @@
       </c>
     </row>
     <row r="209" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A209" s="90" t="s">
+      <c r="A209" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B209" s="22" t="s">
@@ -4739,7 +4797,7 @@
       </c>
     </row>
     <row r="210" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A210" s="68"/>
+      <c r="A210" s="64"/>
       <c r="B210" s="5" t="s">
         <v>77</v>
       </c>
@@ -4757,7 +4815,7 @@
       </c>
     </row>
     <row r="211" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="68"/>
+      <c r="A211" s="64"/>
       <c r="B211" s="5" t="s">
         <v>78</v>
       </c>
@@ -4775,7 +4833,7 @@
       </c>
     </row>
     <row r="212" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="70"/>
+      <c r="A212" s="65"/>
       <c r="B212" s="6" t="s">
         <v>38</v>
       </c>
@@ -4791,30 +4849,30 @@
       <c r="F212" s="50"/>
     </row>
     <row r="213" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A213" s="80" t="s">
+      <c r="A213" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B213" s="82"/>
-      <c r="C213" s="82"/>
-      <c r="D213" s="82"/>
-      <c r="E213" s="82"/>
-      <c r="F213" s="83"/>
+      <c r="B213" s="69"/>
+      <c r="C213" s="69"/>
+      <c r="D213" s="69"/>
+      <c r="E213" s="69"/>
+      <c r="F213" s="70"/>
     </row>
     <row r="215" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="63" t="s">
+      <c r="A215" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="B215" s="64"/>
-      <c r="C215" s="64"/>
-      <c r="D215" s="64"/>
-      <c r="E215" s="64"/>
-      <c r="F215" s="65"/>
+      <c r="B215" s="73"/>
+      <c r="C215" s="73"/>
+      <c r="D215" s="73"/>
+      <c r="E215" s="73"/>
+      <c r="F215" s="74"/>
     </row>
     <row r="216" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A216" s="93" t="s">
+      <c r="A216" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B216" s="94"/>
+      <c r="B216" s="95"/>
       <c r="C216" s="32" t="s">
         <v>73</v>
       </c>
@@ -4829,7 +4887,7 @@
       </c>
     </row>
     <row r="217" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A217" s="90" t="s">
+      <c r="A217" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B217" s="22" t="s">
@@ -4849,7 +4907,7 @@
       </c>
     </row>
     <row r="218" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A218" s="68"/>
+      <c r="A218" s="64"/>
       <c r="B218" s="5" t="s">
         <v>77</v>
       </c>
@@ -4867,7 +4925,7 @@
       </c>
     </row>
     <row r="219" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A219" s="68"/>
+      <c r="A219" s="64"/>
       <c r="B219" s="5" t="s">
         <v>78</v>
       </c>
@@ -4885,7 +4943,7 @@
       </c>
     </row>
     <row r="220" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A220" s="70"/>
+      <c r="A220" s="65"/>
       <c r="B220" s="6" t="s">
         <v>38</v>
       </c>
@@ -4901,30 +4959,30 @@
       <c r="F220" s="50"/>
     </row>
     <row r="221" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A221" s="80" t="s">
+      <c r="A221" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B221" s="82"/>
-      <c r="C221" s="82"/>
-      <c r="D221" s="82"/>
-      <c r="E221" s="82"/>
-      <c r="F221" s="83"/>
+      <c r="B221" s="69"/>
+      <c r="C221" s="69"/>
+      <c r="D221" s="69"/>
+      <c r="E221" s="69"/>
+      <c r="F221" s="70"/>
     </row>
     <row r="223" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A223" s="63" t="s">
+      <c r="A223" s="72" t="s">
         <v>84</v>
       </c>
-      <c r="B223" s="64"/>
-      <c r="C223" s="64"/>
-      <c r="D223" s="64"/>
-      <c r="E223" s="64"/>
-      <c r="F223" s="65"/>
+      <c r="B223" s="73"/>
+      <c r="C223" s="73"/>
+      <c r="D223" s="73"/>
+      <c r="E223" s="73"/>
+      <c r="F223" s="74"/>
     </row>
     <row r="224" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A224" s="93" t="s">
+      <c r="A224" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B224" s="94"/>
+      <c r="B224" s="95"/>
       <c r="C224" s="32" t="s">
         <v>73</v>
       </c>
@@ -4939,7 +4997,7 @@
       </c>
     </row>
     <row r="225" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A225" s="90" t="s">
+      <c r="A225" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B225" s="22" t="s">
@@ -4959,7 +5017,7 @@
       </c>
     </row>
     <row r="226" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A226" s="68"/>
+      <c r="A226" s="64"/>
       <c r="B226" s="5" t="s">
         <v>77</v>
       </c>
@@ -4977,7 +5035,7 @@
       </c>
     </row>
     <row r="227" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A227" s="68"/>
+      <c r="A227" s="64"/>
       <c r="B227" s="5" t="s">
         <v>78</v>
       </c>
@@ -4995,7 +5053,7 @@
       </c>
     </row>
     <row r="228" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A228" s="70"/>
+      <c r="A228" s="65"/>
       <c r="B228" s="6" t="s">
         <v>38</v>
       </c>
@@ -5011,30 +5069,30 @@
       <c r="F228" s="50"/>
     </row>
     <row r="229" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A229" s="80" t="s">
+      <c r="A229" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B229" s="82"/>
-      <c r="C229" s="82"/>
-      <c r="D229" s="82"/>
-      <c r="E229" s="82"/>
-      <c r="F229" s="83"/>
+      <c r="B229" s="69"/>
+      <c r="C229" s="69"/>
+      <c r="D229" s="69"/>
+      <c r="E229" s="69"/>
+      <c r="F229" s="70"/>
     </row>
     <row r="231" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A231" s="63" t="s">
+      <c r="A231" s="72" t="s">
         <v>85</v>
       </c>
-      <c r="B231" s="64"/>
-      <c r="C231" s="64"/>
-      <c r="D231" s="64"/>
-      <c r="E231" s="64"/>
-      <c r="F231" s="65"/>
+      <c r="B231" s="73"/>
+      <c r="C231" s="73"/>
+      <c r="D231" s="73"/>
+      <c r="E231" s="73"/>
+      <c r="F231" s="74"/>
     </row>
     <row r="232" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A232" s="93" t="s">
+      <c r="A232" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B232" s="94"/>
+      <c r="B232" s="95"/>
       <c r="C232" s="32" t="s">
         <v>73</v>
       </c>
@@ -5049,7 +5107,7 @@
       </c>
     </row>
     <row r="233" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="90" t="s">
+      <c r="A233" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B233" s="22" t="s">
@@ -5069,7 +5127,7 @@
       </c>
     </row>
     <row r="234" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A234" s="68"/>
+      <c r="A234" s="64"/>
       <c r="B234" s="5" t="s">
         <v>77</v>
       </c>
@@ -5087,7 +5145,7 @@
       </c>
     </row>
     <row r="235" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A235" s="68"/>
+      <c r="A235" s="64"/>
       <c r="B235" s="5" t="s">
         <v>78</v>
       </c>
@@ -5105,7 +5163,7 @@
       </c>
     </row>
     <row r="236" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A236" s="70"/>
+      <c r="A236" s="65"/>
       <c r="B236" s="6" t="s">
         <v>38</v>
       </c>
@@ -5121,42 +5179,42 @@
       <c r="F236" s="50"/>
     </row>
     <row r="237" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A237" s="80" t="s">
+      <c r="A237" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B237" s="82"/>
-      <c r="C237" s="82"/>
-      <c r="D237" s="82"/>
-      <c r="E237" s="82"/>
-      <c r="F237" s="83"/>
+      <c r="B237" s="69"/>
+      <c r="C237" s="69"/>
+      <c r="D237" s="69"/>
+      <c r="E237" s="69"/>
+      <c r="F237" s="70"/>
     </row>
     <row r="239" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A239" s="63" t="s">
+      <c r="A239" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B239" s="64"/>
-      <c r="C239" s="65"/>
+      <c r="B239" s="73"/>
+      <c r="C239" s="74"/>
     </row>
     <row r="240" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A240" s="66" t="s">
+      <c r="A240" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B240" s="67"/>
+      <c r="B240" s="92"/>
       <c r="C240" s="7" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="241" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A241" s="68" t="s">
+      <c r="A241" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B241" s="69"/>
+      <c r="B241" s="93"/>
       <c r="C241" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="242" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A242" s="68" t="s">
+      <c r="A242" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B242" s="5" t="s">
@@ -5167,7 +5225,7 @@
       </c>
     </row>
     <row r="243" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A243" s="68"/>
+      <c r="A243" s="64"/>
       <c r="B243" s="5" t="s">
         <v>13</v>
       </c>
@@ -5176,7 +5234,7 @@
       </c>
     </row>
     <row r="244" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A244" s="68"/>
+      <c r="A244" s="64"/>
       <c r="B244" s="5" t="s">
         <v>15</v>
       </c>
@@ -5185,7 +5243,7 @@
       </c>
     </row>
     <row r="245" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A245" s="68"/>
+      <c r="A245" s="64"/>
       <c r="B245" s="5" t="s">
         <v>17</v>
       </c>
@@ -5194,7 +5252,7 @@
       </c>
     </row>
     <row r="246" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A246" s="68"/>
+      <c r="A246" s="64"/>
       <c r="B246" s="5" t="s">
         <v>18</v>
       </c>
@@ -5203,7 +5261,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="68"/>
+      <c r="A247" s="64"/>
       <c r="B247" s="5" t="s">
         <v>20</v>
       </c>
@@ -5212,7 +5270,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A248" s="68" t="s">
+      <c r="A248" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B248" s="5" t="s">
@@ -5223,7 +5281,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A249" s="68"/>
+      <c r="A249" s="64"/>
       <c r="B249" s="5" t="s">
         <v>24</v>
       </c>
@@ -5232,16 +5290,16 @@
       </c>
     </row>
     <row r="250" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A250" s="68" t="s">
+      <c r="A250" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B250" s="69"/>
+      <c r="B250" s="93"/>
       <c r="C250" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="251" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A251" s="68" t="s">
+      <c r="A251" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B251" s="5" t="s">
@@ -5252,7 +5310,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A252" s="70"/>
+      <c r="A252" s="65"/>
       <c r="B252" s="6" t="s">
         <v>31</v>
       </c>
@@ -5275,68 +5333,68 @@
         <v>92</v>
       </c>
     </row>
-    <row r="257" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="258" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="259" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="260" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="261" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="262" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="265" spans="1:3" ht="18" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:4" ht="18" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="267" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="63" t="s">
+    <row r="267" spans="1:4" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B267" s="64"/>
-      <c r="C267" s="65"/>
-    </row>
-    <row r="268" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="66" t="s">
+      <c r="B267" s="73"/>
+      <c r="C267" s="74"/>
+    </row>
+    <row r="268" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B268" s="67"/>
+      <c r="B268" s="92"/>
       <c r="C268" s="7" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="269" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="68" t="s">
+    <row r="269" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B269" s="69"/>
+      <c r="B269" s="93"/>
       <c r="C269" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="270" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="68" t="s">
+    <row r="270" spans="1:4" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B270" s="5" t="s">
@@ -5346,8 +5404,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="271" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="68"/>
+    <row r="271" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="64"/>
       <c r="B271" s="5" t="s">
         <v>13</v>
       </c>
@@ -5355,17 +5413,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="272" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="68"/>
+    <row r="272" spans="1:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A272" s="64"/>
       <c r="B272" s="5" t="s">
         <v>15</v>
       </c>
       <c r="C272" s="8" t="s">
         <v>99</v>
       </c>
+      <c r="D272" s="102" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="273" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="68"/>
+      <c r="A273" s="64"/>
       <c r="B273" s="5" t="s">
         <v>17</v>
       </c>
@@ -5374,7 +5435,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="68"/>
+      <c r="A274" s="64"/>
       <c r="B274" s="5" t="s">
         <v>18</v>
       </c>
@@ -5383,7 +5444,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="68"/>
+      <c r="A275" s="64"/>
       <c r="B275" s="5" t="s">
         <v>20</v>
       </c>
@@ -5392,7 +5453,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="68" t="s">
+      <c r="A276" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B276" s="5" t="s">
@@ -5403,7 +5464,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="68"/>
+      <c r="A277" s="64"/>
       <c r="B277" s="5" t="s">
         <v>24</v>
       </c>
@@ -5412,16 +5473,16 @@
       </c>
     </row>
     <row r="278" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="68" t="s">
+      <c r="A278" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B278" s="69"/>
+      <c r="B278" s="93"/>
       <c r="C278" s="8" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="279" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="68" t="s">
+      <c r="A279" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B279" s="5" t="s">
@@ -5432,7 +5493,7 @@
       </c>
     </row>
     <row r="280" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="70"/>
+      <c r="A280" s="65"/>
       <c r="B280" s="6" t="s">
         <v>31</v>
       </c>
@@ -5446,11 +5507,11 @@
       </c>
     </row>
     <row r="285" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="63" t="s">
+      <c r="A285" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B285" s="64"/>
-      <c r="C285" s="65"/>
+      <c r="B285" s="73"/>
+      <c r="C285" s="74"/>
     </row>
     <row r="286" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="54" t="s">
@@ -5458,7 +5519,7 @@
       </c>
     </row>
     <row r="287" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="66" t="s">
+      <c r="A287" s="91" t="s">
         <v>39</v>
       </c>
       <c r="B287" s="3" t="s">
@@ -5469,7 +5530,7 @@
       </c>
     </row>
     <row r="288" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="70"/>
+      <c r="A288" s="65"/>
       <c r="B288" s="6" t="s">
         <v>37</v>
       </c>
@@ -5477,28 +5538,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="80" t="s">
+    <row r="289" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B289" s="82"/>
-      <c r="C289" s="83"/>
-    </row>
-    <row r="291" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="63" t="s">
+      <c r="B289" s="69"/>
+      <c r="C289" s="70"/>
+    </row>
+    <row r="291" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="B291" s="64"/>
-      <c r="C291" s="64"/>
-      <c r="D291" s="64"/>
-      <c r="E291" s="64"/>
-      <c r="F291" s="65"/>
-    </row>
-    <row r="292" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="93" t="s">
+      <c r="B291" s="73"/>
+      <c r="C291" s="73"/>
+      <c r="D291" s="73"/>
+      <c r="E291" s="73"/>
+      <c r="F291" s="74"/>
+    </row>
+    <row r="292" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B292" s="94"/>
+      <c r="B292" s="95"/>
       <c r="C292" s="32" t="s">
         <v>73</v>
       </c>
@@ -5511,9 +5572,13 @@
       <c r="F292" s="35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="293" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="90" t="s">
+      <c r="H292" s="105" t="s">
+        <v>154</v>
+      </c>
+      <c r="I292" s="105"/>
+    </row>
+    <row r="293" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B293" s="22" t="s">
@@ -5531,9 +5596,11 @@
       <c r="F293" s="44">
         <v>70.909090909090907</v>
       </c>
-    </row>
-    <row r="294" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="68"/>
+      <c r="H293" s="105"/>
+      <c r="I293" s="105"/>
+    </row>
+    <row r="294" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="64"/>
       <c r="B294" s="5" t="s">
         <v>103</v>
       </c>
@@ -5549,9 +5616,11 @@
       <c r="F294" s="47">
         <v>83.636363636363626</v>
       </c>
-    </row>
-    <row r="295" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="68"/>
+      <c r="H294" s="105"/>
+      <c r="I294" s="105"/>
+    </row>
+    <row r="295" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="64"/>
       <c r="B295" s="5" t="s">
         <v>104</v>
       </c>
@@ -5568,8 +5637,8 @@
         <v>100</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="70"/>
+    <row r="296" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="65"/>
       <c r="B296" s="6" t="s">
         <v>38</v>
       </c>
@@ -5584,35 +5653,35 @@
       </c>
       <c r="F296" s="50"/>
     </row>
-    <row r="297" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="80" t="s">
+    <row r="297" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B297" s="82"/>
-      <c r="C297" s="82"/>
-      <c r="D297" s="82"/>
-      <c r="E297" s="82"/>
-      <c r="F297" s="83"/>
-    </row>
-    <row r="300" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B297" s="69"/>
+      <c r="C297" s="69"/>
+      <c r="D297" s="69"/>
+      <c r="E297" s="69"/>
+      <c r="F297" s="70"/>
+    </row>
+    <row r="300" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="302" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="63" t="s">
+    <row r="302" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B302" s="64"/>
-      <c r="C302" s="65"/>
-    </row>
-    <row r="303" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B302" s="73"/>
+      <c r="C302" s="74"/>
+    </row>
+    <row r="303" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="54" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="304" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="66" t="s">
+    <row r="304" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="91" t="s">
         <v>39</v>
       </c>
       <c r="B304" s="3" t="s">
@@ -5622,8 +5691,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="305" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="70"/>
+    <row r="305" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="65"/>
       <c r="B305" s="6" t="s">
         <v>37</v>
       </c>
@@ -5631,28 +5700,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="306" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="80" t="s">
+    <row r="306" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B306" s="82"/>
-      <c r="C306" s="83"/>
-    </row>
-    <row r="308" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="63" t="s">
+      <c r="B306" s="69"/>
+      <c r="C306" s="70"/>
+    </row>
+    <row r="308" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="72" t="s">
         <v>101</v>
       </c>
-      <c r="B308" s="64"/>
-      <c r="C308" s="64"/>
-      <c r="D308" s="64"/>
-      <c r="E308" s="64"/>
-      <c r="F308" s="65"/>
-    </row>
-    <row r="309" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="93" t="s">
+      <c r="B308" s="73"/>
+      <c r="C308" s="73"/>
+      <c r="D308" s="73"/>
+      <c r="E308" s="73"/>
+      <c r="F308" s="74"/>
+    </row>
+    <row r="309" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B309" s="94"/>
+      <c r="B309" s="95"/>
       <c r="C309" s="32" t="s">
         <v>73</v>
       </c>
@@ -5666,8 +5735,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="310" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="90" t="s">
+    <row r="310" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B310" s="22" t="s">
@@ -5685,9 +5754,13 @@
       <c r="F310" s="44">
         <v>75</v>
       </c>
-    </row>
-    <row r="311" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="68"/>
+      <c r="H310" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="I310" s="104"/>
+    </row>
+    <row r="311" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="64"/>
       <c r="B311" s="5" t="s">
         <v>103</v>
       </c>
@@ -5703,9 +5776,11 @@
       <c r="F311" s="47">
         <v>78.571428571428569</v>
       </c>
-    </row>
-    <row r="312" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="68"/>
+      <c r="H311" s="104"/>
+      <c r="I311" s="104"/>
+    </row>
+    <row r="312" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="64"/>
       <c r="B312" s="5" t="s">
         <v>104</v>
       </c>
@@ -5721,9 +5796,11 @@
       <c r="F312" s="47">
         <v>96.428571428571431</v>
       </c>
-    </row>
-    <row r="313" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="68"/>
+      <c r="H312" s="104"/>
+      <c r="I312" s="104"/>
+    </row>
+    <row r="313" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="64"/>
       <c r="B313" s="5" t="s">
         <v>78</v>
       </c>
@@ -5739,9 +5816,11 @@
       <c r="F313" s="47">
         <v>100</v>
       </c>
-    </row>
-    <row r="314" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="70"/>
+      <c r="H313" s="104"/>
+      <c r="I313" s="104"/>
+    </row>
+    <row r="314" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A314" s="65"/>
       <c r="B314" s="6" t="s">
         <v>38</v>
       </c>
@@ -5756,43 +5835,43 @@
       </c>
       <c r="F314" s="50"/>
     </row>
-    <row r="315" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="80" t="s">
+    <row r="315" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B315" s="82"/>
-      <c r="C315" s="82"/>
-      <c r="D315" s="82"/>
-      <c r="E315" s="82"/>
-      <c r="F315" s="83"/>
-    </row>
-    <row r="317" spans="1:6" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A317" s="63" t="s">
+      <c r="B315" s="69"/>
+      <c r="C315" s="69"/>
+      <c r="D315" s="69"/>
+      <c r="E315" s="69"/>
+      <c r="F315" s="70"/>
+    </row>
+    <row r="317" spans="1:9" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A317" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B317" s="64"/>
-      <c r="C317" s="65"/>
-    </row>
-    <row r="318" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A318" s="66" t="s">
+      <c r="B317" s="73"/>
+      <c r="C317" s="74"/>
+    </row>
+    <row r="318" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B318" s="67"/>
+      <c r="B318" s="92"/>
       <c r="C318" s="7" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="319" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A319" s="68" t="s">
+    <row r="319" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B319" s="69"/>
+      <c r="B319" s="93"/>
       <c r="C319" s="8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="320" spans="1:6" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A320" s="68" t="s">
+    <row r="320" spans="1:9" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A320" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B320" s="5" t="s">
@@ -5803,7 +5882,7 @@
       </c>
     </row>
     <row r="321" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A321" s="68"/>
+      <c r="A321" s="64"/>
       <c r="B321" s="5" t="s">
         <v>13</v>
       </c>
@@ -5812,7 +5891,7 @@
       </c>
     </row>
     <row r="322" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A322" s="68"/>
+      <c r="A322" s="64"/>
       <c r="B322" s="5" t="s">
         <v>15</v>
       </c>
@@ -5821,7 +5900,7 @@
       </c>
     </row>
     <row r="323" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A323" s="68"/>
+      <c r="A323" s="64"/>
       <c r="B323" s="5" t="s">
         <v>17</v>
       </c>
@@ -5830,7 +5909,7 @@
       </c>
     </row>
     <row r="324" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A324" s="68"/>
+      <c r="A324" s="64"/>
       <c r="B324" s="5" t="s">
         <v>18</v>
       </c>
@@ -5839,7 +5918,7 @@
       </c>
     </row>
     <row r="325" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A325" s="68" t="s">
+      <c r="A325" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B325" s="5" t="s">
@@ -5850,7 +5929,7 @@
       </c>
     </row>
     <row r="326" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A326" s="68"/>
+      <c r="A326" s="64"/>
       <c r="B326" s="5" t="s">
         <v>24</v>
       </c>
@@ -5859,16 +5938,16 @@
       </c>
     </row>
     <row r="327" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A327" s="68" t="s">
+      <c r="A327" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B327" s="69"/>
+      <c r="B327" s="93"/>
       <c r="C327" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="328" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A328" s="68" t="s">
+      <c r="A328" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B328" s="5" t="s">
@@ -5879,7 +5958,7 @@
       </c>
     </row>
     <row r="329" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A329" s="70"/>
+      <c r="A329" s="65"/>
       <c r="B329" s="6" t="s">
         <v>31</v>
       </c>
@@ -5888,32 +5967,32 @@
       </c>
     </row>
     <row r="331" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A331" s="63" t="s">
+      <c r="A331" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B331" s="64"/>
-      <c r="C331" s="65"/>
+      <c r="B331" s="73"/>
+      <c r="C331" s="74"/>
     </row>
     <row r="332" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A332" s="66" t="s">
+      <c r="A332" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B332" s="67"/>
+      <c r="B332" s="92"/>
       <c r="C332" s="7" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="333" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A333" s="68" t="s">
+      <c r="A333" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B333" s="69"/>
+      <c r="B333" s="93"/>
       <c r="C333" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="334" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A334" s="68" t="s">
+      <c r="A334" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B334" s="5" t="s">
@@ -5924,7 +6003,7 @@
       </c>
     </row>
     <row r="335" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A335" s="68"/>
+      <c r="A335" s="64"/>
       <c r="B335" s="5" t="s">
         <v>13</v>
       </c>
@@ -5933,7 +6012,7 @@
       </c>
     </row>
     <row r="336" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A336" s="68"/>
+      <c r="A336" s="64"/>
       <c r="B336" s="5" t="s">
         <v>15</v>
       </c>
@@ -5942,7 +6021,7 @@
       </c>
     </row>
     <row r="337" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A337" s="68"/>
+      <c r="A337" s="64"/>
       <c r="B337" s="5" t="s">
         <v>17</v>
       </c>
@@ -5951,7 +6030,7 @@
       </c>
     </row>
     <row r="338" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A338" s="68"/>
+      <c r="A338" s="64"/>
       <c r="B338" s="5" t="s">
         <v>18</v>
       </c>
@@ -5960,7 +6039,7 @@
       </c>
     </row>
     <row r="339" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A339" s="68" t="s">
+      <c r="A339" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B339" s="5" t="s">
@@ -5971,7 +6050,7 @@
       </c>
     </row>
     <row r="340" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A340" s="68"/>
+      <c r="A340" s="64"/>
       <c r="B340" s="5" t="s">
         <v>24</v>
       </c>
@@ -5980,16 +6059,16 @@
       </c>
     </row>
     <row r="341" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A341" s="68" t="s">
+      <c r="A341" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B341" s="69"/>
+      <c r="B341" s="93"/>
       <c r="C341" s="8" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="342" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A342" s="68" t="s">
+      <c r="A342" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B342" s="5" t="s">
@@ -6000,7 +6079,7 @@
       </c>
     </row>
     <row r="343" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A343" s="70"/>
+      <c r="A343" s="65"/>
       <c r="B343" s="6" t="s">
         <v>31</v>
       </c>
@@ -6009,32 +6088,32 @@
       </c>
     </row>
     <row r="345" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A345" s="63" t="s">
+      <c r="A345" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B345" s="64"/>
-      <c r="C345" s="65"/>
+      <c r="B345" s="73"/>
+      <c r="C345" s="74"/>
     </row>
     <row r="346" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A346" s="66" t="s">
+      <c r="A346" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B346" s="67"/>
+      <c r="B346" s="92"/>
       <c r="C346" s="7" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="347" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A347" s="68" t="s">
+      <c r="A347" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B347" s="69"/>
+      <c r="B347" s="93"/>
       <c r="C347" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="348" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A348" s="68" t="s">
+      <c r="A348" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B348" s="5" t="s">
@@ -6045,7 +6124,7 @@
       </c>
     </row>
     <row r="349" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A349" s="68"/>
+      <c r="A349" s="64"/>
       <c r="B349" s="5" t="s">
         <v>13</v>
       </c>
@@ -6054,7 +6133,7 @@
       </c>
     </row>
     <row r="350" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A350" s="68"/>
+      <c r="A350" s="64"/>
       <c r="B350" s="5" t="s">
         <v>15</v>
       </c>
@@ -6063,7 +6142,7 @@
       </c>
     </row>
     <row r="351" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A351" s="68"/>
+      <c r="A351" s="64"/>
       <c r="B351" s="5" t="s">
         <v>17</v>
       </c>
@@ -6072,7 +6151,7 @@
       </c>
     </row>
     <row r="352" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A352" s="68"/>
+      <c r="A352" s="64"/>
       <c r="B352" s="5" t="s">
         <v>18</v>
       </c>
@@ -6081,7 +6160,7 @@
       </c>
     </row>
     <row r="353" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A353" s="68" t="s">
+      <c r="A353" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B353" s="5" t="s">
@@ -6092,7 +6171,7 @@
       </c>
     </row>
     <row r="354" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A354" s="68"/>
+      <c r="A354" s="64"/>
       <c r="B354" s="5" t="s">
         <v>24</v>
       </c>
@@ -6101,16 +6180,16 @@
       </c>
     </row>
     <row r="355" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A355" s="68" t="s">
+      <c r="A355" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B355" s="69"/>
+      <c r="B355" s="93"/>
       <c r="C355" s="8" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="356" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A356" s="68" t="s">
+      <c r="A356" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B356" s="5" t="s">
@@ -6121,7 +6200,7 @@
       </c>
     </row>
     <row r="357" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A357" s="70"/>
+      <c r="A357" s="65"/>
       <c r="B357" s="6" t="s">
         <v>31</v>
       </c>
@@ -6180,32 +6259,32 @@
       </c>
     </row>
     <row r="373" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A373" s="63" t="s">
+      <c r="A373" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B373" s="64"/>
-      <c r="C373" s="65"/>
+      <c r="B373" s="73"/>
+      <c r="C373" s="74"/>
     </row>
     <row r="374" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A374" s="66" t="s">
+      <c r="A374" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B374" s="67"/>
+      <c r="B374" s="92"/>
       <c r="C374" s="7" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="375" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A375" s="68" t="s">
+      <c r="A375" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B375" s="69"/>
+      <c r="B375" s="93"/>
       <c r="C375" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="376" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A376" s="68" t="s">
+      <c r="A376" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B376" s="5" t="s">
@@ -6216,7 +6295,7 @@
       </c>
     </row>
     <row r="377" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A377" s="68"/>
+      <c r="A377" s="64"/>
       <c r="B377" s="5" t="s">
         <v>13</v>
       </c>
@@ -6225,7 +6304,7 @@
       </c>
     </row>
     <row r="378" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A378" s="68"/>
+      <c r="A378" s="64"/>
       <c r="B378" s="5" t="s">
         <v>15</v>
       </c>
@@ -6234,7 +6313,7 @@
       </c>
     </row>
     <row r="379" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A379" s="68"/>
+      <c r="A379" s="64"/>
       <c r="B379" s="5" t="s">
         <v>17</v>
       </c>
@@ -6243,7 +6322,7 @@
       </c>
     </row>
     <row r="380" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A380" s="68"/>
+      <c r="A380" s="64"/>
       <c r="B380" s="5" t="s">
         <v>18</v>
       </c>
@@ -6252,7 +6331,7 @@
       </c>
     </row>
     <row r="381" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A381" s="68"/>
+      <c r="A381" s="64"/>
       <c r="B381" s="5" t="s">
         <v>20</v>
       </c>
@@ -6261,7 +6340,7 @@
       </c>
     </row>
     <row r="382" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A382" s="68" t="s">
+      <c r="A382" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B382" s="5" t="s">
@@ -6272,7 +6351,7 @@
       </c>
     </row>
     <row r="383" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A383" s="68"/>
+      <c r="A383" s="64"/>
       <c r="B383" s="5" t="s">
         <v>24</v>
       </c>
@@ -6281,16 +6360,16 @@
       </c>
     </row>
     <row r="384" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A384" s="68" t="s">
+      <c r="A384" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B384" s="69"/>
+      <c r="B384" s="93"/>
       <c r="C384" s="8" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="385" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A385" s="68" t="s">
+    <row r="385" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B385" s="5" t="s">
@@ -6300,8 +6379,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="386" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A386" s="70"/>
+    <row r="386" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A386" s="65"/>
       <c r="B386" s="6" t="s">
         <v>31</v>
       </c>
@@ -6309,25 +6388,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="389" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="391" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A391" s="63" t="s">
+    <row r="391" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B391" s="64"/>
-      <c r="C391" s="65"/>
-    </row>
-    <row r="392" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B391" s="73"/>
+      <c r="C391" s="74"/>
+    </row>
+    <row r="392" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="393" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A393" s="66" t="s">
+    <row r="393" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="91" t="s">
         <v>39</v>
       </c>
       <c r="B393" s="3" t="s">
@@ -6337,8 +6416,8 @@
         <v>44</v>
       </c>
     </row>
-    <row r="394" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A394" s="70"/>
+    <row r="394" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="65"/>
       <c r="B394" s="6" t="s">
         <v>37</v>
       </c>
@@ -6346,28 +6425,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="395" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A395" s="80" t="s">
+    <row r="395" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A395" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B395" s="82"/>
-      <c r="C395" s="83"/>
-    </row>
-    <row r="397" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A397" s="63" t="s">
+      <c r="B395" s="69"/>
+      <c r="C395" s="70"/>
+    </row>
+    <row r="397" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B397" s="64"/>
-      <c r="C397" s="64"/>
-      <c r="D397" s="64"/>
-      <c r="E397" s="64"/>
-      <c r="F397" s="65"/>
-    </row>
-    <row r="398" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A398" s="93" t="s">
+      <c r="B397" s="73"/>
+      <c r="C397" s="73"/>
+      <c r="D397" s="73"/>
+      <c r="E397" s="73"/>
+      <c r="F397" s="74"/>
+    </row>
+    <row r="398" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A398" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B398" s="94"/>
+      <c r="B398" s="95"/>
       <c r="C398" s="32" t="s">
         <v>73</v>
       </c>
@@ -6381,8 +6460,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="399" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A399" s="90" t="s">
+    <row r="399" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B399" s="22" t="s">
@@ -6400,9 +6479,13 @@
       <c r="F399" s="44">
         <v>75</v>
       </c>
-    </row>
-    <row r="400" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A400" s="68"/>
+      <c r="H399" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="I399" s="104"/>
+    </row>
+    <row r="400" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="64"/>
       <c r="B400" s="5" t="s">
         <v>103</v>
       </c>
@@ -6418,9 +6501,11 @@
       <c r="F400" s="47">
         <v>77.272727272727266</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A401" s="68"/>
+      <c r="H400" s="104"/>
+      <c r="I400" s="104"/>
+    </row>
+    <row r="401" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A401" s="64"/>
       <c r="B401" s="5" t="s">
         <v>104</v>
       </c>
@@ -6436,9 +6521,11 @@
       <c r="F401" s="47">
         <v>100</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A402" s="70"/>
+      <c r="H401" s="104"/>
+      <c r="I401" s="104"/>
+    </row>
+    <row r="402" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="65"/>
       <c r="B402" s="6" t="s">
         <v>38</v>
       </c>
@@ -6452,36 +6539,38 @@
         <v>100</v>
       </c>
       <c r="F402" s="50"/>
-    </row>
-    <row r="403" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A403" s="80" t="s">
+      <c r="H402" s="104"/>
+      <c r="I402" s="104"/>
+    </row>
+    <row r="403" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B403" s="82"/>
-      <c r="C403" s="82"/>
-      <c r="D403" s="82"/>
-      <c r="E403" s="82"/>
-      <c r="F403" s="83"/>
-    </row>
-    <row r="406" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+      <c r="B403" s="69"/>
+      <c r="C403" s="69"/>
+      <c r="D403" s="69"/>
+      <c r="E403" s="69"/>
+      <c r="F403" s="70"/>
+    </row>
+    <row r="406" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="408" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A408" s="63" t="s">
+    <row r="408" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B408" s="64"/>
-      <c r="C408" s="65"/>
-    </row>
-    <row r="409" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B408" s="73"/>
+      <c r="C408" s="74"/>
+    </row>
+    <row r="409" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="54" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="410" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A410" s="66" t="s">
+    <row r="410" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A410" s="91" t="s">
         <v>39</v>
       </c>
       <c r="B410" s="3" t="s">
@@ -6491,8 +6580,8 @@
         <v>43</v>
       </c>
     </row>
-    <row r="411" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A411" s="70"/>
+    <row r="411" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="65"/>
       <c r="B411" s="6" t="s">
         <v>37</v>
       </c>
@@ -6500,28 +6589,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="412" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A412" s="80" t="s">
+    <row r="412" spans="1:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B412" s="82"/>
-      <c r="C412" s="83"/>
-    </row>
-    <row r="414" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A414" s="63" t="s">
+      <c r="B412" s="69"/>
+      <c r="C412" s="70"/>
+    </row>
+    <row r="414" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="72" t="s">
         <v>118</v>
       </c>
-      <c r="B414" s="64"/>
-      <c r="C414" s="64"/>
-      <c r="D414" s="64"/>
-      <c r="E414" s="64"/>
-      <c r="F414" s="65"/>
-    </row>
-    <row r="415" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A415" s="93" t="s">
+      <c r="B414" s="73"/>
+      <c r="C414" s="73"/>
+      <c r="D414" s="73"/>
+      <c r="E414" s="73"/>
+      <c r="F414" s="74"/>
+    </row>
+    <row r="415" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B415" s="94"/>
+      <c r="B415" s="95"/>
       <c r="C415" s="32" t="s">
         <v>73</v>
       </c>
@@ -6535,8 +6624,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="416" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A416" s="90" t="s">
+    <row r="416" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A416" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B416" s="22" t="s">
@@ -6554,9 +6643,13 @@
       <c r="F416" s="44">
         <v>69.767441860465112</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A417" s="68"/>
+      <c r="H416" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="I416" s="104"/>
+    </row>
+    <row r="417" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="64"/>
       <c r="B417" s="5" t="s">
         <v>103</v>
       </c>
@@ -6572,9 +6665,11 @@
       <c r="F417" s="47">
         <v>79.069767441860463</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A418" s="68"/>
+      <c r="H417" s="104"/>
+      <c r="I417" s="104"/>
+    </row>
+    <row r="418" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="64"/>
       <c r="B418" s="5" t="s">
         <v>104</v>
       </c>
@@ -6590,9 +6685,11 @@
       <c r="F418" s="47">
         <v>100</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A419" s="70"/>
+      <c r="H418" s="104"/>
+      <c r="I418" s="104"/>
+    </row>
+    <row r="419" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A419" s="65"/>
       <c r="B419" s="6" t="s">
         <v>38</v>
       </c>
@@ -6606,58 +6703,60 @@
         <v>100</v>
       </c>
       <c r="F419" s="50"/>
-    </row>
-    <row r="420" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A420" s="80" t="s">
+      <c r="H419" s="104"/>
+      <c r="I419" s="104"/>
+    </row>
+    <row r="420" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B420" s="82"/>
-      <c r="C420" s="82"/>
-      <c r="D420" s="82"/>
-      <c r="E420" s="82"/>
-      <c r="F420" s="83"/>
-    </row>
-    <row r="422" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B420" s="69"/>
+      <c r="C420" s="69"/>
+      <c r="D420" s="69"/>
+      <c r="E420" s="69"/>
+      <c r="F420" s="70"/>
+    </row>
+    <row r="422" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="423" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="424" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="425" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="426" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="427" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="428" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="430" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="431" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
         <v>57</v>
       </c>
@@ -6668,32 +6767,32 @@
       </c>
     </row>
     <row r="436" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A436" s="63" t="s">
+      <c r="A436" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B436" s="64"/>
-      <c r="C436" s="65"/>
+      <c r="B436" s="73"/>
+      <c r="C436" s="74"/>
     </row>
     <row r="437" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A437" s="66" t="s">
+      <c r="A437" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B437" s="67"/>
+      <c r="B437" s="92"/>
       <c r="C437" s="7" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="438" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A438" s="68" t="s">
+      <c r="A438" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B438" s="69"/>
+      <c r="B438" s="93"/>
       <c r="C438" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="439" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A439" s="68" t="s">
+      <c r="A439" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B439" s="5" t="s">
@@ -6704,7 +6803,7 @@
       </c>
     </row>
     <row r="440" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A440" s="68"/>
+      <c r="A440" s="64"/>
       <c r="B440" s="5" t="s">
         <v>13</v>
       </c>
@@ -6713,7 +6812,7 @@
       </c>
     </row>
     <row r="441" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A441" s="68"/>
+      <c r="A441" s="64"/>
       <c r="B441" s="5" t="s">
         <v>15</v>
       </c>
@@ -6722,7 +6821,7 @@
       </c>
     </row>
     <row r="442" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A442" s="68"/>
+      <c r="A442" s="64"/>
       <c r="B442" s="5" t="s">
         <v>17</v>
       </c>
@@ -6731,7 +6830,7 @@
       </c>
     </row>
     <row r="443" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A443" s="68"/>
+      <c r="A443" s="64"/>
       <c r="B443" s="5" t="s">
         <v>18</v>
       </c>
@@ -6740,7 +6839,7 @@
       </c>
     </row>
     <row r="444" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A444" s="68"/>
+      <c r="A444" s="64"/>
       <c r="B444" s="5" t="s">
         <v>20</v>
       </c>
@@ -6749,7 +6848,7 @@
       </c>
     </row>
     <row r="445" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A445" s="68" t="s">
+      <c r="A445" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B445" s="5" t="s">
@@ -6760,7 +6859,7 @@
       </c>
     </row>
     <row r="446" spans="1:3" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A446" s="68"/>
+      <c r="A446" s="64"/>
       <c r="B446" s="5" t="s">
         <v>24</v>
       </c>
@@ -6769,16 +6868,16 @@
       </c>
     </row>
     <row r="447" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A447" s="68" t="s">
+      <c r="A447" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B447" s="69"/>
+      <c r="B447" s="93"/>
       <c r="C447" s="8" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="448" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A448" s="68" t="s">
+      <c r="A448" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B448" s="5" t="s">
@@ -6788,8 +6887,8 @@
         <v>30</v>
       </c>
     </row>
-    <row r="449" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A449" s="70"/>
+    <row r="449" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A449" s="65"/>
       <c r="B449" s="6" t="s">
         <v>31</v>
       </c>
@@ -6797,25 +6896,25 @@
         <v>30</v>
       </c>
     </row>
-    <row r="452" spans="1:6" ht="18" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:9" ht="18" x14ac:dyDescent="0.25">
       <c r="A452" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="454" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A454" s="63" t="s">
+    <row r="454" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B454" s="64"/>
-      <c r="C454" s="65"/>
-    </row>
-    <row r="455" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B454" s="73"/>
+      <c r="C454" s="74"/>
+    </row>
+    <row r="455" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="54" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="456" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A456" s="66" t="s">
+    <row r="456" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="91" t="s">
         <v>39</v>
       </c>
       <c r="B456" s="3" t="s">
@@ -6825,8 +6924,8 @@
         <v>28</v>
       </c>
     </row>
-    <row r="457" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A457" s="70"/>
+    <row r="457" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="65"/>
       <c r="B457" s="6" t="s">
         <v>37</v>
       </c>
@@ -6834,28 +6933,28 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A458" s="80" t="s">
+    <row r="458" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A458" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B458" s="82"/>
-      <c r="C458" s="83"/>
-    </row>
-    <row r="460" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A460" s="63" t="s">
+      <c r="B458" s="69"/>
+      <c r="C458" s="70"/>
+    </row>
+    <row r="460" spans="1:9" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B460" s="64"/>
-      <c r="C460" s="64"/>
-      <c r="D460" s="64"/>
-      <c r="E460" s="64"/>
-      <c r="F460" s="65"/>
-    </row>
-    <row r="461" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="93" t="s">
+      <c r="B460" s="73"/>
+      <c r="C460" s="73"/>
+      <c r="D460" s="73"/>
+      <c r="E460" s="73"/>
+      <c r="F460" s="74"/>
+    </row>
+    <row r="461" spans="1:9" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A461" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B461" s="94"/>
+      <c r="B461" s="95"/>
       <c r="C461" s="32" t="s">
         <v>73</v>
       </c>
@@ -6868,9 +6967,13 @@
       <c r="F461" s="35" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A462" s="90" t="s">
+      <c r="H461" s="104" t="s">
+        <v>153</v>
+      </c>
+      <c r="I461" s="104"/>
+    </row>
+    <row r="462" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="63" t="s">
         <v>36</v>
       </c>
       <c r="B462" s="22" t="s">
@@ -6888,9 +6991,11 @@
       <c r="F462" s="44">
         <v>96.428571428571431</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A463" s="68"/>
+      <c r="H462" s="104"/>
+      <c r="I462" s="104"/>
+    </row>
+    <row r="463" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="64"/>
       <c r="B463" s="5" t="s">
         <v>104</v>
       </c>
@@ -6906,9 +7011,11 @@
       <c r="F463" s="47">
         <v>100</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A464" s="70"/>
+      <c r="H463" s="104"/>
+      <c r="I463" s="104"/>
+    </row>
+    <row r="464" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A464" s="65"/>
       <c r="B464" s="6" t="s">
         <v>38</v>
       </c>
@@ -6922,16 +7029,18 @@
         <v>100</v>
       </c>
       <c r="F464" s="50"/>
+      <c r="H464" s="104"/>
+      <c r="I464" s="104"/>
     </row>
     <row r="465" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A465" s="80" t="s">
+      <c r="A465" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B465" s="82"/>
-      <c r="C465" s="82"/>
-      <c r="D465" s="82"/>
-      <c r="E465" s="82"/>
-      <c r="F465" s="83"/>
+      <c r="B465" s="69"/>
+      <c r="C465" s="69"/>
+      <c r="D465" s="69"/>
+      <c r="E465" s="69"/>
+      <c r="F465" s="70"/>
     </row>
     <row r="468" spans="1:6" ht="18" x14ac:dyDescent="0.25">
       <c r="A468" s="2" t="s">
@@ -6939,11 +7048,11 @@
       </c>
     </row>
     <row r="470" spans="1:6" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="63" t="s">
+      <c r="A470" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="B470" s="64"/>
-      <c r="C470" s="65"/>
+      <c r="B470" s="73"/>
+      <c r="C470" s="74"/>
     </row>
     <row r="471" spans="1:6" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="54" t="s">
@@ -6951,7 +7060,7 @@
       </c>
     </row>
     <row r="472" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A472" s="66" t="s">
+      <c r="A472" s="91" t="s">
         <v>39</v>
       </c>
       <c r="B472" s="3" t="s">
@@ -6962,7 +7071,7 @@
       </c>
     </row>
     <row r="473" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A473" s="70"/>
+      <c r="A473" s="65"/>
       <c r="B473" s="6" t="s">
         <v>37</v>
       </c>
@@ -6971,27 +7080,27 @@
       </c>
     </row>
     <row r="474" spans="1:6" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A474" s="80" t="s">
+      <c r="A474" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B474" s="82"/>
-      <c r="C474" s="83"/>
+      <c r="B474" s="69"/>
+      <c r="C474" s="70"/>
     </row>
     <row r="476" spans="1:6" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="63" t="s">
+      <c r="A476" s="72" t="s">
         <v>126</v>
       </c>
-      <c r="B476" s="64"/>
-      <c r="C476" s="64"/>
-      <c r="D476" s="64"/>
-      <c r="E476" s="64"/>
-      <c r="F476" s="65"/>
+      <c r="B476" s="73"/>
+      <c r="C476" s="73"/>
+      <c r="D476" s="73"/>
+      <c r="E476" s="73"/>
+      <c r="F476" s="74"/>
     </row>
     <row r="477" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A477" s="93" t="s">
+      <c r="A477" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B477" s="94"/>
+      <c r="B477" s="95"/>
       <c r="C477" s="32" t="s">
         <v>73</v>
       </c>
@@ -7026,14 +7135,14 @@
       </c>
     </row>
     <row r="479" spans="1:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A479" s="80" t="s">
+      <c r="A479" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B479" s="82"/>
-      <c r="C479" s="82"/>
-      <c r="D479" s="82"/>
-      <c r="E479" s="82"/>
-      <c r="F479" s="83"/>
+      <c r="B479" s="69"/>
+      <c r="C479" s="69"/>
+      <c r="D479" s="69"/>
+      <c r="E479" s="69"/>
+      <c r="F479" s="70"/>
     </row>
     <row r="481" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
@@ -7061,32 +7170,32 @@
       </c>
     </row>
     <row r="489" spans="1:3" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A489" s="63" t="s">
+      <c r="A489" s="72" t="s">
         <v>5</v>
       </c>
-      <c r="B489" s="64"/>
-      <c r="C489" s="65"/>
+      <c r="B489" s="73"/>
+      <c r="C489" s="74"/>
     </row>
     <row r="490" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A490" s="66" t="s">
+      <c r="A490" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="B490" s="67"/>
+      <c r="B490" s="92"/>
       <c r="C490" s="7" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="491" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A491" s="68" t="s">
+      <c r="A491" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="B491" s="69"/>
+      <c r="B491" s="93"/>
       <c r="C491" s="8" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="492" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A492" s="68" t="s">
+      <c r="A492" s="64" t="s">
         <v>10</v>
       </c>
       <c r="B492" s="5" t="s">
@@ -7097,7 +7206,7 @@
       </c>
     </row>
     <row r="493" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A493" s="68"/>
+      <c r="A493" s="64"/>
       <c r="B493" s="5" t="s">
         <v>13</v>
       </c>
@@ -7106,7 +7215,7 @@
       </c>
     </row>
     <row r="494" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A494" s="68"/>
+      <c r="A494" s="64"/>
       <c r="B494" s="5" t="s">
         <v>15</v>
       </c>
@@ -7115,7 +7224,7 @@
       </c>
     </row>
     <row r="495" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A495" s="68"/>
+      <c r="A495" s="64"/>
       <c r="B495" s="5" t="s">
         <v>17</v>
       </c>
@@ -7124,7 +7233,7 @@
       </c>
     </row>
     <row r="496" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="68"/>
+      <c r="A496" s="64"/>
       <c r="B496" s="5" t="s">
         <v>18</v>
       </c>
@@ -7133,7 +7242,7 @@
       </c>
     </row>
     <row r="497" spans="1:7" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="68"/>
+      <c r="A497" s="64"/>
       <c r="B497" s="5" t="s">
         <v>20</v>
       </c>
@@ -7142,7 +7251,7 @@
       </c>
     </row>
     <row r="498" spans="1:7" ht="59.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A498" s="68" t="s">
+      <c r="A498" s="64" t="s">
         <v>21</v>
       </c>
       <c r="B498" s="5" t="s">
@@ -7153,7 +7262,7 @@
       </c>
     </row>
     <row r="499" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="68"/>
+      <c r="A499" s="64"/>
       <c r="B499" s="5" t="s">
         <v>24</v>
       </c>
@@ -7162,16 +7271,16 @@
       </c>
     </row>
     <row r="500" spans="1:7" ht="255" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="68" t="s">
+      <c r="A500" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="B500" s="69"/>
+      <c r="B500" s="93"/>
       <c r="C500" s="8" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="501" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="68" t="s">
+      <c r="A501" s="64" t="s">
         <v>28</v>
       </c>
       <c r="B501" s="5" t="s">
@@ -7182,7 +7291,7 @@
       </c>
     </row>
     <row r="502" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="70"/>
+      <c r="A502" s="65"/>
       <c r="B502" s="6" t="s">
         <v>31</v>
       </c>
@@ -7196,46 +7305,46 @@
       </c>
     </row>
     <row r="507" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A507" s="63" t="s">
+      <c r="A507" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B507" s="64"/>
-      <c r="C507" s="64"/>
-      <c r="D507" s="64"/>
-      <c r="E507" s="64"/>
-      <c r="F507" s="64"/>
-      <c r="G507" s="65"/>
+      <c r="B507" s="73"/>
+      <c r="C507" s="73"/>
+      <c r="D507" s="73"/>
+      <c r="E507" s="73"/>
+      <c r="F507" s="73"/>
+      <c r="G507" s="74"/>
     </row>
     <row r="508" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A508" s="71" t="s">
+      <c r="A508" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B508" s="74" t="s">
+      <c r="B508" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C508" s="92"/>
-      <c r="D508" s="75"/>
-      <c r="E508" s="92"/>
-      <c r="F508" s="75"/>
-      <c r="G508" s="76"/>
+      <c r="C508" s="87"/>
+      <c r="D508" s="80"/>
+      <c r="E508" s="87"/>
+      <c r="F508" s="80"/>
+      <c r="G508" s="81"/>
     </row>
     <row r="509" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A509" s="72"/>
-      <c r="B509" s="77" t="s">
+      <c r="A509" s="84"/>
+      <c r="B509" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C509" s="78"/>
-      <c r="D509" s="78" t="s">
+      <c r="C509" s="89"/>
+      <c r="D509" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="E509" s="78"/>
-      <c r="F509" s="78" t="s">
+      <c r="E509" s="89"/>
+      <c r="F509" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G509" s="79"/>
+      <c r="G509" s="90"/>
     </row>
     <row r="510" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A510" s="73"/>
+      <c r="A510" s="85"/>
       <c r="B510" s="12" t="s">
         <v>39</v>
       </c>
@@ -7279,62 +7388,62 @@
       </c>
     </row>
     <row r="512" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A512" s="80" t="s">
+      <c r="A512" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B512" s="80"/>
-      <c r="C512" s="80"/>
-      <c r="D512" s="80"/>
-      <c r="E512" s="80"/>
-      <c r="F512" s="80"/>
-      <c r="G512" s="81"/>
-    </row>
-    <row r="513" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A513" s="80" t="s">
+      <c r="B512" s="67"/>
+      <c r="C512" s="67"/>
+      <c r="D512" s="67"/>
+      <c r="E512" s="67"/>
+      <c r="F512" s="67"/>
+      <c r="G512" s="68"/>
+    </row>
+    <row r="513" spans="1:9" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A513" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B513" s="82"/>
-      <c r="C513" s="82"/>
-      <c r="D513" s="82"/>
-      <c r="E513" s="82"/>
-      <c r="F513" s="82"/>
-      <c r="G513" s="83"/>
-    </row>
-    <row r="515" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="63" t="s">
+      <c r="B513" s="69"/>
+      <c r="C513" s="69"/>
+      <c r="D513" s="69"/>
+      <c r="E513" s="69"/>
+      <c r="F513" s="69"/>
+      <c r="G513" s="70"/>
+    </row>
+    <row r="515" spans="1:9" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A515" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="B515" s="64"/>
-      <c r="C515" s="64"/>
-      <c r="D515" s="64"/>
-      <c r="E515" s="65"/>
-    </row>
-    <row r="516" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A516" s="84" t="s">
+      <c r="B515" s="73"/>
+      <c r="C515" s="73"/>
+      <c r="D515" s="73"/>
+      <c r="E515" s="74"/>
+    </row>
+    <row r="516" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B516" s="85"/>
-      <c r="C516" s="88" t="s">
+      <c r="B516" s="76"/>
+      <c r="C516" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D516" s="75"/>
-      <c r="E516" s="76" t="s">
+      <c r="D516" s="80"/>
+      <c r="E516" s="81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="517" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="86"/>
-      <c r="B517" s="87"/>
+    <row r="517" spans="1:9" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="77"/>
+      <c r="B517" s="78"/>
       <c r="C517" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D517" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E517" s="89"/>
-    </row>
-    <row r="518" spans="1:7" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A518" s="90" t="s">
+      <c r="E517" s="82"/>
+    </row>
+    <row r="518" spans="1:9" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A518" s="63" t="s">
         <v>134</v>
       </c>
       <c r="B518" s="22" t="s">
@@ -7350,8 +7459,8 @@
         <v>2.9411764705882349E-2</v>
       </c>
     </row>
-    <row r="519" spans="1:7" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A519" s="68"/>
+    <row r="519" spans="1:9" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A519" s="64"/>
       <c r="B519" s="5" t="s">
         <v>136</v>
       </c>
@@ -7365,8 +7474,8 @@
         <v>4.4117647058823532E-2</v>
       </c>
     </row>
-    <row r="520" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A520" s="68"/>
+    <row r="520" spans="1:9" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A520" s="64"/>
       <c r="B520" s="5" t="s">
         <v>137</v>
       </c>
@@ -7380,8 +7489,8 @@
         <v>0.47058823529411759</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A521" s="68"/>
+    <row r="521" spans="1:9" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A521" s="64"/>
       <c r="B521" s="5" t="s">
         <v>138</v>
       </c>
@@ -7395,8 +7504,8 @@
         <v>0.42647058823529416</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A522" s="68"/>
+    <row r="522" spans="1:9" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A522" s="64"/>
       <c r="B522" s="5" t="s">
         <v>139</v>
       </c>
@@ -7410,8 +7519,8 @@
         <v>0.32352941176470584</v>
       </c>
     </row>
-    <row r="523" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A523" s="68"/>
+    <row r="523" spans="1:9" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A523" s="64"/>
       <c r="B523" s="5" t="s">
         <v>140</v>
       </c>
@@ -7424,9 +7533,14 @@
       <c r="E523" s="28">
         <v>0.29411764705882354</v>
       </c>
-    </row>
-    <row r="524" spans="1:7" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A524" s="68"/>
+      <c r="G523" s="103" t="s">
+        <v>155</v>
+      </c>
+      <c r="H523" s="103"/>
+      <c r="I523" s="103"/>
+    </row>
+    <row r="524" spans="1:9" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A524" s="64"/>
       <c r="B524" s="5" t="s">
         <v>141</v>
       </c>
@@ -7440,8 +7554,8 @@
         <v>0.48529411764705882</v>
       </c>
     </row>
-    <row r="525" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A525" s="68"/>
+    <row r="525" spans="1:9" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A525" s="64"/>
       <c r="B525" s="5" t="s">
         <v>142</v>
       </c>
@@ -7455,8 +7569,8 @@
         <v>0.55882352941176472</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="68"/>
+    <row r="526" spans="1:9" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A526" s="64"/>
       <c r="B526" s="5" t="s">
         <v>143</v>
       </c>
@@ -7470,8 +7584,8 @@
         <v>0.32352941176470584</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A527" s="68"/>
+    <row r="527" spans="1:9" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="64"/>
       <c r="B527" s="5" t="s">
         <v>144</v>
       </c>
@@ -7485,8 +7599,8 @@
         <v>0.10294117647058823</v>
       </c>
     </row>
-    <row r="528" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="68"/>
+    <row r="528" spans="1:9" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="64"/>
       <c r="B528" s="5" t="s">
         <v>145</v>
       </c>
@@ -7501,7 +7615,7 @@
       </c>
     </row>
     <row r="529" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A529" s="68"/>
+      <c r="A529" s="64"/>
       <c r="B529" s="5" t="s">
         <v>146</v>
       </c>
@@ -7516,7 +7630,7 @@
       </c>
     </row>
     <row r="530" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A530" s="68"/>
+      <c r="A530" s="64"/>
       <c r="B530" s="5" t="s">
         <v>147</v>
       </c>
@@ -7531,7 +7645,7 @@
       </c>
     </row>
     <row r="531" spans="1:7" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A531" s="68"/>
+      <c r="A531" s="64"/>
       <c r="B531" s="5" t="s">
         <v>148</v>
       </c>
@@ -7546,10 +7660,10 @@
       </c>
     </row>
     <row r="532" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A532" s="70" t="s">
+      <c r="A532" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B532" s="91"/>
+      <c r="B532" s="66"/>
       <c r="C532" s="29">
         <v>235</v>
       </c>
@@ -7561,22 +7675,22 @@
       </c>
     </row>
     <row r="533" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A533" s="80" t="s">
+      <c r="A533" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="B533" s="80"/>
-      <c r="C533" s="80"/>
-      <c r="D533" s="80"/>
-      <c r="E533" s="81"/>
+      <c r="B533" s="67"/>
+      <c r="C533" s="67"/>
+      <c r="D533" s="67"/>
+      <c r="E533" s="68"/>
     </row>
     <row r="534" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A534" s="80" t="s">
+      <c r="A534" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B534" s="82"/>
-      <c r="C534" s="82"/>
-      <c r="D534" s="82"/>
-      <c r="E534" s="83"/>
+      <c r="B534" s="69"/>
+      <c r="C534" s="69"/>
+      <c r="D534" s="69"/>
+      <c r="E534" s="70"/>
     </row>
     <row r="537" spans="1:7" ht="18" x14ac:dyDescent="0.25">
       <c r="A537" s="2" t="s">
@@ -7584,46 +7698,46 @@
       </c>
     </row>
     <row r="539" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A539" s="63" t="s">
+      <c r="A539" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="B539" s="64"/>
-      <c r="C539" s="64"/>
-      <c r="D539" s="64"/>
-      <c r="E539" s="64"/>
-      <c r="F539" s="64"/>
-      <c r="G539" s="65"/>
+      <c r="B539" s="73"/>
+      <c r="C539" s="73"/>
+      <c r="D539" s="73"/>
+      <c r="E539" s="73"/>
+      <c r="F539" s="73"/>
+      <c r="G539" s="74"/>
     </row>
     <row r="540" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A540" s="71" t="s">
+      <c r="A540" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B540" s="74" t="s">
+      <c r="B540" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="C540" s="92"/>
-      <c r="D540" s="75"/>
-      <c r="E540" s="92"/>
-      <c r="F540" s="75"/>
-      <c r="G540" s="76"/>
+      <c r="C540" s="87"/>
+      <c r="D540" s="80"/>
+      <c r="E540" s="87"/>
+      <c r="F540" s="80"/>
+      <c r="G540" s="81"/>
     </row>
     <row r="541" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A541" s="72"/>
-      <c r="B541" s="77" t="s">
+      <c r="A541" s="84"/>
+      <c r="B541" s="88" t="s">
         <v>36</v>
       </c>
-      <c r="C541" s="78"/>
-      <c r="D541" s="78" t="s">
+      <c r="C541" s="89"/>
+      <c r="D541" s="89" t="s">
         <v>37</v>
       </c>
-      <c r="E541" s="78"/>
-      <c r="F541" s="78" t="s">
+      <c r="E541" s="89"/>
+      <c r="F541" s="89" t="s">
         <v>38</v>
       </c>
-      <c r="G541" s="79"/>
+      <c r="G541" s="90"/>
     </row>
     <row r="542" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A542" s="73"/>
+      <c r="A542" s="85"/>
       <c r="B542" s="12" t="s">
         <v>39</v>
       </c>
@@ -7667,62 +7781,62 @@
       </c>
     </row>
     <row r="544" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A544" s="80" t="s">
+      <c r="A544" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B544" s="80"/>
-      <c r="C544" s="80"/>
-      <c r="D544" s="80"/>
-      <c r="E544" s="80"/>
-      <c r="F544" s="80"/>
-      <c r="G544" s="81"/>
-    </row>
-    <row r="545" spans="1:7" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A545" s="80" t="s">
+      <c r="B544" s="67"/>
+      <c r="C544" s="67"/>
+      <c r="D544" s="67"/>
+      <c r="E544" s="67"/>
+      <c r="F544" s="67"/>
+      <c r="G544" s="68"/>
+    </row>
+    <row r="545" spans="1:8" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A545" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B545" s="82"/>
-      <c r="C545" s="82"/>
-      <c r="D545" s="82"/>
-      <c r="E545" s="82"/>
-      <c r="F545" s="82"/>
-      <c r="G545" s="83"/>
-    </row>
-    <row r="547" spans="1:7" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="63" t="s">
+      <c r="B545" s="69"/>
+      <c r="C545" s="69"/>
+      <c r="D545" s="69"/>
+      <c r="E545" s="69"/>
+      <c r="F545" s="69"/>
+      <c r="G545" s="70"/>
+    </row>
+    <row r="547" spans="1:8" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A547" s="72" t="s">
         <v>133</v>
       </c>
-      <c r="B547" s="64"/>
-      <c r="C547" s="64"/>
-      <c r="D547" s="64"/>
-      <c r="E547" s="65"/>
-    </row>
-    <row r="548" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A548" s="84" t="s">
+      <c r="B547" s="73"/>
+      <c r="C547" s="73"/>
+      <c r="D547" s="73"/>
+      <c r="E547" s="74"/>
+    </row>
+    <row r="548" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="75" t="s">
         <v>9</v>
       </c>
-      <c r="B548" s="85"/>
-      <c r="C548" s="88" t="s">
+      <c r="B548" s="76"/>
+      <c r="C548" s="79" t="s">
         <v>45</v>
       </c>
-      <c r="D548" s="75"/>
-      <c r="E548" s="76" t="s">
+      <c r="D548" s="80"/>
+      <c r="E548" s="81" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="86"/>
-      <c r="B549" s="87"/>
+    <row r="549" spans="1:8" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="77"/>
+      <c r="B549" s="78"/>
       <c r="C549" s="21" t="s">
         <v>39</v>
       </c>
       <c r="D549" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="E549" s="89"/>
-    </row>
-    <row r="550" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A550" s="90" t="s">
+      <c r="E549" s="82"/>
+    </row>
+    <row r="550" spans="1:8" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A550" s="63" t="s">
         <v>134</v>
       </c>
       <c r="B550" s="22" t="s">
@@ -7738,8 +7852,8 @@
         <v>4.6153846153846156E-2</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A551" s="68"/>
+    <row r="551" spans="1:8" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A551" s="64"/>
       <c r="B551" s="5" t="s">
         <v>135</v>
       </c>
@@ -7753,8 +7867,8 @@
         <v>6.1538461538461542E-2</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A552" s="68"/>
+    <row r="552" spans="1:8" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A552" s="64"/>
       <c r="B552" s="5" t="s">
         <v>136</v>
       </c>
@@ -7768,8 +7882,8 @@
         <v>6.1538461538461542E-2</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A553" s="68"/>
+    <row r="553" spans="1:8" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A553" s="64"/>
       <c r="B553" s="5" t="s">
         <v>137</v>
       </c>
@@ -7782,9 +7896,13 @@
       <c r="E553" s="28">
         <v>0.15384615384615385</v>
       </c>
-    </row>
-    <row r="554" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A554" s="68"/>
+      <c r="G553" s="103" t="s">
+        <v>156</v>
+      </c>
+      <c r="H553" s="103"/>
+    </row>
+    <row r="554" spans="1:8" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A554" s="64"/>
       <c r="B554" s="5" t="s">
         <v>138</v>
       </c>
@@ -7798,8 +7916,8 @@
         <v>0.12307692307692308</v>
       </c>
     </row>
-    <row r="555" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A555" s="68"/>
+    <row r="555" spans="1:8" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A555" s="64"/>
       <c r="B555" s="5" t="s">
         <v>139</v>
       </c>
@@ -7813,8 +7931,8 @@
         <v>3.0769230769230771E-2</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A556" s="68"/>
+    <row r="556" spans="1:8" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A556" s="64"/>
       <c r="B556" s="5" t="s">
         <v>140</v>
       </c>
@@ -7828,8 +7946,8 @@
         <v>4.6153846153846156E-2</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A557" s="68"/>
+    <row r="557" spans="1:8" ht="147.94999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A557" s="64"/>
       <c r="B557" s="5" t="s">
         <v>141</v>
       </c>
@@ -7843,8 +7961,8 @@
         <v>0.49230769230769234</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="68"/>
+    <row r="558" spans="1:8" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A558" s="64"/>
       <c r="B558" s="5" t="s">
         <v>142</v>
       </c>
@@ -7858,8 +7976,8 @@
         <v>0.38461538461538469</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A559" s="68"/>
+    <row r="559" spans="1:8" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="64"/>
       <c r="B559" s="5" t="s">
         <v>143</v>
       </c>
@@ -7873,8 +7991,8 @@
         <v>0.13846153846153847</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="68"/>
+    <row r="560" spans="1:8" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="64"/>
       <c r="B560" s="5" t="s">
         <v>145</v>
       </c>
@@ -7889,7 +8007,7 @@
       </c>
     </row>
     <row r="561" spans="1:5" ht="111.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A561" s="68"/>
+      <c r="A561" s="64"/>
       <c r="B561" s="5" t="s">
         <v>146</v>
       </c>
@@ -7904,7 +8022,7 @@
       </c>
     </row>
     <row r="562" spans="1:5" ht="93.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A562" s="68"/>
+      <c r="A562" s="64"/>
       <c r="B562" s="5" t="s">
         <v>147</v>
       </c>
@@ -7919,7 +8037,7 @@
       </c>
     </row>
     <row r="563" spans="1:5" ht="77.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A563" s="68"/>
+      <c r="A563" s="64"/>
       <c r="B563" s="5" t="s">
         <v>148</v>
       </c>
@@ -7934,10 +8052,10 @@
       </c>
     </row>
     <row r="564" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A564" s="70" t="s">
+      <c r="A564" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B564" s="91"/>
+      <c r="B564" s="66"/>
       <c r="C564" s="29">
         <v>130</v>
       </c>
@@ -7949,25 +8067,257 @@
       </c>
     </row>
     <row r="565" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A565" s="80" t="s">
+      <c r="A565" s="67" t="s">
         <v>53</v>
       </c>
-      <c r="B565" s="80"/>
-      <c r="C565" s="80"/>
-      <c r="D565" s="80"/>
-      <c r="E565" s="81"/>
+      <c r="B565" s="67"/>
+      <c r="C565" s="67"/>
+      <c r="D565" s="67"/>
+      <c r="E565" s="68"/>
     </row>
     <row r="566" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A566" s="80" t="s">
+      <c r="A566" s="67" t="s">
         <v>43</v>
       </c>
-      <c r="B566" s="82"/>
-      <c r="C566" s="82"/>
-      <c r="D566" s="82"/>
-      <c r="E566" s="83"/>
+      <c r="B566" s="69"/>
+      <c r="C566" s="69"/>
+      <c r="D566" s="69"/>
+      <c r="E566" s="70"/>
     </row>
   </sheetData>
-  <mergeCells count="250">
+  <mergeCells count="256">
+    <mergeCell ref="H416:I419"/>
+    <mergeCell ref="H461:I464"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D16:D18"/>
+    <mergeCell ref="H292:I294"/>
+    <mergeCell ref="H310:I313"/>
+    <mergeCell ref="H399:I402"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="G20:K20"/>
+    <mergeCell ref="A38:A41"/>
+    <mergeCell ref="A42:B42"/>
+    <mergeCell ref="A43:E43"/>
+    <mergeCell ref="A44:E44"/>
+    <mergeCell ref="A49:G49"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="A36:B37"/>
+    <mergeCell ref="C36:D36"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="A54:G54"/>
+    <mergeCell ref="A55:G55"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A58:B59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="B50:G50"/>
+    <mergeCell ref="B51:C51"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A78:B78"/>
+    <mergeCell ref="A79:A84"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A66:B66"/>
+    <mergeCell ref="A67:E67"/>
+    <mergeCell ref="A68:E68"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A103:F103"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A105:A108"/>
+    <mergeCell ref="A109:F109"/>
+    <mergeCell ref="A111:F111"/>
+    <mergeCell ref="A88:A89"/>
+    <mergeCell ref="A94:J94"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A96:A97"/>
+    <mergeCell ref="A98:J98"/>
+    <mergeCell ref="A120:A123"/>
+    <mergeCell ref="A124:F124"/>
+    <mergeCell ref="A126:F126"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="A128:A130"/>
+    <mergeCell ref="A112:B112"/>
+    <mergeCell ref="A113:A115"/>
+    <mergeCell ref="A116:F116"/>
+    <mergeCell ref="A118:F118"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A140:F140"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A142:A144"/>
+    <mergeCell ref="A145:F145"/>
+    <mergeCell ref="A147:F147"/>
+    <mergeCell ref="A131:F131"/>
+    <mergeCell ref="A133:F133"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A135:A137"/>
+    <mergeCell ref="A138:F138"/>
+    <mergeCell ref="A156:A158"/>
+    <mergeCell ref="A160:B160"/>
+    <mergeCell ref="A161:F161"/>
+    <mergeCell ref="A166:J166"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A148:B148"/>
+    <mergeCell ref="A149:A151"/>
+    <mergeCell ref="A152:F152"/>
+    <mergeCell ref="A154:F154"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A183:F183"/>
+    <mergeCell ref="A184:B184"/>
+    <mergeCell ref="A185:A188"/>
+    <mergeCell ref="A189:F189"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="A170:J170"/>
+    <mergeCell ref="A175:F175"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A177:A180"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A201:A204"/>
+    <mergeCell ref="A205:F205"/>
+    <mergeCell ref="A207:F207"/>
+    <mergeCell ref="A208:B208"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A193:A196"/>
+    <mergeCell ref="A197:F197"/>
+    <mergeCell ref="A199:F199"/>
+    <mergeCell ref="A221:F221"/>
+    <mergeCell ref="A223:F223"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A225:A228"/>
+    <mergeCell ref="A229:F229"/>
+    <mergeCell ref="A209:A212"/>
+    <mergeCell ref="A213:F213"/>
+    <mergeCell ref="A215:F215"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A217:A220"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A241:B241"/>
+    <mergeCell ref="A242:A247"/>
+    <mergeCell ref="A248:A249"/>
+    <mergeCell ref="A250:B250"/>
+    <mergeCell ref="A231:F231"/>
+    <mergeCell ref="A232:B232"/>
+    <mergeCell ref="A233:A236"/>
+    <mergeCell ref="A237:F237"/>
+    <mergeCell ref="A239:C239"/>
+    <mergeCell ref="A276:A277"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A279:A280"/>
+    <mergeCell ref="A285:C285"/>
+    <mergeCell ref="A287:A288"/>
+    <mergeCell ref="A251:A252"/>
+    <mergeCell ref="A267:C267"/>
+    <mergeCell ref="A268:B268"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A270:A275"/>
+    <mergeCell ref="A302:C302"/>
+    <mergeCell ref="A304:A305"/>
+    <mergeCell ref="A306:C306"/>
+    <mergeCell ref="A308:F308"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A289:C289"/>
+    <mergeCell ref="A291:F291"/>
+    <mergeCell ref="A292:B292"/>
+    <mergeCell ref="A293:A296"/>
+    <mergeCell ref="A297:F297"/>
+    <mergeCell ref="A320:A324"/>
+    <mergeCell ref="A325:A326"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A328:A329"/>
+    <mergeCell ref="A331:C331"/>
+    <mergeCell ref="A310:A314"/>
+    <mergeCell ref="A315:F315"/>
+    <mergeCell ref="A317:C317"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="A319:B319"/>
+    <mergeCell ref="A342:A343"/>
+    <mergeCell ref="A345:C345"/>
+    <mergeCell ref="A346:B346"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A348:A352"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="A334:A338"/>
+    <mergeCell ref="A339:A340"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="A375:B375"/>
+    <mergeCell ref="A376:A381"/>
+    <mergeCell ref="A382:A383"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="A385:A386"/>
+    <mergeCell ref="A353:A354"/>
+    <mergeCell ref="A355:B355"/>
+    <mergeCell ref="A356:A357"/>
+    <mergeCell ref="A373:C373"/>
+    <mergeCell ref="A374:B374"/>
+    <mergeCell ref="A399:A402"/>
+    <mergeCell ref="A403:F403"/>
+    <mergeCell ref="A408:C408"/>
+    <mergeCell ref="A410:A411"/>
+    <mergeCell ref="A412:C412"/>
+    <mergeCell ref="A391:C391"/>
+    <mergeCell ref="A393:A394"/>
+    <mergeCell ref="A395:C395"/>
+    <mergeCell ref="A397:F397"/>
+    <mergeCell ref="A398:B398"/>
+    <mergeCell ref="A437:B437"/>
+    <mergeCell ref="A438:B438"/>
+    <mergeCell ref="A439:A444"/>
+    <mergeCell ref="A445:A446"/>
+    <mergeCell ref="A447:B447"/>
+    <mergeCell ref="A414:F414"/>
+    <mergeCell ref="A415:B415"/>
+    <mergeCell ref="A416:A419"/>
+    <mergeCell ref="A420:F420"/>
+    <mergeCell ref="A436:C436"/>
+    <mergeCell ref="A461:B461"/>
+    <mergeCell ref="A462:A464"/>
+    <mergeCell ref="A465:F465"/>
+    <mergeCell ref="A470:C470"/>
+    <mergeCell ref="A472:A473"/>
+    <mergeCell ref="A448:A449"/>
+    <mergeCell ref="A454:C454"/>
+    <mergeCell ref="A456:A457"/>
+    <mergeCell ref="A458:C458"/>
+    <mergeCell ref="A460:F460"/>
+    <mergeCell ref="A490:B490"/>
+    <mergeCell ref="A491:B491"/>
+    <mergeCell ref="A492:A497"/>
+    <mergeCell ref="A498:A499"/>
+    <mergeCell ref="A500:B500"/>
+    <mergeCell ref="A474:C474"/>
+    <mergeCell ref="A476:F476"/>
+    <mergeCell ref="A477:B477"/>
+    <mergeCell ref="A479:F479"/>
+    <mergeCell ref="A489:C489"/>
+    <mergeCell ref="A516:B517"/>
+    <mergeCell ref="C516:D516"/>
+    <mergeCell ref="E516:E517"/>
+    <mergeCell ref="A501:A502"/>
+    <mergeCell ref="A507:G507"/>
+    <mergeCell ref="A508:A510"/>
+    <mergeCell ref="B508:G508"/>
+    <mergeCell ref="B509:C509"/>
+    <mergeCell ref="D509:E509"/>
+    <mergeCell ref="F509:G509"/>
     <mergeCell ref="A550:A563"/>
     <mergeCell ref="A564:B564"/>
     <mergeCell ref="A565:E565"/>
@@ -7992,232 +8342,6 @@
     <mergeCell ref="A512:G512"/>
     <mergeCell ref="A513:G513"/>
     <mergeCell ref="A515:E515"/>
-    <mergeCell ref="A516:B517"/>
-    <mergeCell ref="C516:D516"/>
-    <mergeCell ref="E516:E517"/>
-    <mergeCell ref="A501:A502"/>
-    <mergeCell ref="A507:G507"/>
-    <mergeCell ref="A508:A510"/>
-    <mergeCell ref="B508:G508"/>
-    <mergeCell ref="B509:C509"/>
-    <mergeCell ref="D509:E509"/>
-    <mergeCell ref="F509:G509"/>
-    <mergeCell ref="A490:B490"/>
-    <mergeCell ref="A491:B491"/>
-    <mergeCell ref="A492:A497"/>
-    <mergeCell ref="A498:A499"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="A474:C474"/>
-    <mergeCell ref="A476:F476"/>
-    <mergeCell ref="A477:B477"/>
-    <mergeCell ref="A479:F479"/>
-    <mergeCell ref="A489:C489"/>
-    <mergeCell ref="A461:B461"/>
-    <mergeCell ref="A462:A464"/>
-    <mergeCell ref="A465:F465"/>
-    <mergeCell ref="A470:C470"/>
-    <mergeCell ref="A472:A473"/>
-    <mergeCell ref="A448:A449"/>
-    <mergeCell ref="A454:C454"/>
-    <mergeCell ref="A456:A457"/>
-    <mergeCell ref="A458:C458"/>
-    <mergeCell ref="A460:F460"/>
-    <mergeCell ref="A437:B437"/>
-    <mergeCell ref="A438:B438"/>
-    <mergeCell ref="A439:A444"/>
-    <mergeCell ref="A445:A446"/>
-    <mergeCell ref="A447:B447"/>
-    <mergeCell ref="A414:F414"/>
-    <mergeCell ref="A415:B415"/>
-    <mergeCell ref="A416:A419"/>
-    <mergeCell ref="A420:F420"/>
-    <mergeCell ref="A436:C436"/>
-    <mergeCell ref="A399:A402"/>
-    <mergeCell ref="A403:F403"/>
-    <mergeCell ref="A408:C408"/>
-    <mergeCell ref="A410:A411"/>
-    <mergeCell ref="A412:C412"/>
-    <mergeCell ref="A391:C391"/>
-    <mergeCell ref="A393:A394"/>
-    <mergeCell ref="A395:C395"/>
-    <mergeCell ref="A397:F397"/>
-    <mergeCell ref="A398:B398"/>
-    <mergeCell ref="A375:B375"/>
-    <mergeCell ref="A376:A381"/>
-    <mergeCell ref="A382:A383"/>
-    <mergeCell ref="A384:B384"/>
-    <mergeCell ref="A385:A386"/>
-    <mergeCell ref="A353:A354"/>
-    <mergeCell ref="A355:B355"/>
-    <mergeCell ref="A356:A357"/>
-    <mergeCell ref="A373:C373"/>
-    <mergeCell ref="A374:B374"/>
-    <mergeCell ref="A342:A343"/>
-    <mergeCell ref="A345:C345"/>
-    <mergeCell ref="A346:B346"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A348:A352"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A333:B333"/>
-    <mergeCell ref="A334:A338"/>
-    <mergeCell ref="A339:A340"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="A320:A324"/>
-    <mergeCell ref="A325:A326"/>
-    <mergeCell ref="A327:B327"/>
-    <mergeCell ref="A328:A329"/>
-    <mergeCell ref="A331:C331"/>
-    <mergeCell ref="A310:A314"/>
-    <mergeCell ref="A315:F315"/>
-    <mergeCell ref="A317:C317"/>
-    <mergeCell ref="A318:B318"/>
-    <mergeCell ref="A319:B319"/>
-    <mergeCell ref="A302:C302"/>
-    <mergeCell ref="A304:A305"/>
-    <mergeCell ref="A306:C306"/>
-    <mergeCell ref="A308:F308"/>
-    <mergeCell ref="A309:B309"/>
-    <mergeCell ref="A289:C289"/>
-    <mergeCell ref="A291:F291"/>
-    <mergeCell ref="A292:B292"/>
-    <mergeCell ref="A293:A296"/>
-    <mergeCell ref="A297:F297"/>
-    <mergeCell ref="A276:A277"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A279:A280"/>
-    <mergeCell ref="A285:C285"/>
-    <mergeCell ref="A287:A288"/>
-    <mergeCell ref="A251:A252"/>
-    <mergeCell ref="A267:C267"/>
-    <mergeCell ref="A268:B268"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A270:A275"/>
-    <mergeCell ref="A240:B240"/>
-    <mergeCell ref="A241:B241"/>
-    <mergeCell ref="A242:A247"/>
-    <mergeCell ref="A248:A249"/>
-    <mergeCell ref="A250:B250"/>
-    <mergeCell ref="A231:F231"/>
-    <mergeCell ref="A232:B232"/>
-    <mergeCell ref="A233:A236"/>
-    <mergeCell ref="A237:F237"/>
-    <mergeCell ref="A239:C239"/>
-    <mergeCell ref="A221:F221"/>
-    <mergeCell ref="A223:F223"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A225:A228"/>
-    <mergeCell ref="A229:F229"/>
-    <mergeCell ref="A209:A212"/>
-    <mergeCell ref="A213:F213"/>
-    <mergeCell ref="A215:F215"/>
-    <mergeCell ref="A216:B216"/>
-    <mergeCell ref="A217:A220"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A201:A204"/>
-    <mergeCell ref="A205:F205"/>
-    <mergeCell ref="A207:F207"/>
-    <mergeCell ref="A208:B208"/>
-    <mergeCell ref="A191:F191"/>
-    <mergeCell ref="A192:B192"/>
-    <mergeCell ref="A193:A196"/>
-    <mergeCell ref="A197:F197"/>
-    <mergeCell ref="A199:F199"/>
-    <mergeCell ref="A181:F181"/>
-    <mergeCell ref="A183:F183"/>
-    <mergeCell ref="A184:B184"/>
-    <mergeCell ref="A185:A188"/>
-    <mergeCell ref="A189:F189"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="A170:J170"/>
-    <mergeCell ref="A175:F175"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A177:A180"/>
-    <mergeCell ref="A156:A158"/>
-    <mergeCell ref="A160:B160"/>
-    <mergeCell ref="A161:F161"/>
-    <mergeCell ref="A166:J166"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A148:B148"/>
-    <mergeCell ref="A149:A151"/>
-    <mergeCell ref="A152:F152"/>
-    <mergeCell ref="A154:F154"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A140:F140"/>
-    <mergeCell ref="A141:B141"/>
-    <mergeCell ref="A142:A144"/>
-    <mergeCell ref="A145:F145"/>
-    <mergeCell ref="A147:F147"/>
-    <mergeCell ref="A131:F131"/>
-    <mergeCell ref="A133:F133"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A135:A137"/>
-    <mergeCell ref="A138:F138"/>
-    <mergeCell ref="A120:A123"/>
-    <mergeCell ref="A124:F124"/>
-    <mergeCell ref="A126:F126"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="A128:A130"/>
-    <mergeCell ref="A112:B112"/>
-    <mergeCell ref="A113:A115"/>
-    <mergeCell ref="A116:F116"/>
-    <mergeCell ref="A118:F118"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A103:F103"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A105:A108"/>
-    <mergeCell ref="A109:F109"/>
-    <mergeCell ref="A111:F111"/>
-    <mergeCell ref="A88:A89"/>
-    <mergeCell ref="A94:J94"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A96:A97"/>
-    <mergeCell ref="A98:J98"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A78:B78"/>
-    <mergeCell ref="A79:A84"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="A87:B87"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A66:B66"/>
-    <mergeCell ref="A67:E67"/>
-    <mergeCell ref="A68:E68"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A54:G54"/>
-    <mergeCell ref="A55:G55"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A58:B59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="B50:G50"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="A38:A41"/>
-    <mergeCell ref="A42:B42"/>
-    <mergeCell ref="A43:E43"/>
-    <mergeCell ref="A44:E44"/>
-    <mergeCell ref="A49:G49"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="A36:B37"/>
-    <mergeCell ref="C36:D36"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="A28:A30"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="G20:K20"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A12:A17"/>
-    <mergeCell ref="A18:A19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
